--- a/opm_hero_property/heroes/61.xlsx
+++ b/opm_hero_property/heroes/61.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11140</v>
       </c>
       <c r="D4" t="n">
-        <v>11140</v>
+        <v>11446</v>
       </c>
       <c r="E4" t="n">
         <v>211</v>
@@ -1304,7 +1305,7 @@
         <v>12433</v>
       </c>
       <c r="D5" t="n">
-        <v>12433</v>
+        <v>13084</v>
       </c>
       <c r="E5" t="n">
         <v>316</v>
@@ -1411,7 +1412,7 @@
         <v>13953</v>
       </c>
       <c r="D6" t="n">
-        <v>13953</v>
+        <v>15012</v>
       </c>
       <c r="E6" t="n">
         <v>433</v>
@@ -1518,7 +1519,7 @@
         <v>15702</v>
       </c>
       <c r="D7" t="n">
-        <v>15702</v>
+        <v>19036</v>
       </c>
       <c r="E7" t="n">
         <v>812</v>
@@ -1625,7 +1626,7 @@
         <v>17679</v>
       </c>
       <c r="D8" t="n">
-        <v>17679</v>
+        <v>24602</v>
       </c>
       <c r="E8" t="n">
         <v>1202</v>
@@ -1732,7 +1733,7 @@
         <v>19959</v>
       </c>
       <c r="D9" t="n">
-        <v>19959</v>
+        <v>32096</v>
       </c>
       <c r="E9" t="n">
         <v>1587</v>
@@ -1839,7 +1840,7 @@
         <v>21176</v>
       </c>
       <c r="D10" t="n">
-        <v>21176</v>
+        <v>38337</v>
       </c>
       <c r="E10" t="n">
         <v>1876</v>
@@ -1946,7 +1947,7 @@
         <v>22620</v>
       </c>
       <c r="D11" t="n">
-        <v>22620</v>
+        <v>45999</v>
       </c>
       <c r="E11" t="n">
         <v>2188</v>
@@ -2053,7 +2054,7 @@
         <v>25661</v>
       </c>
       <c r="D12" t="n">
-        <v>25661</v>
+        <v>59637</v>
       </c>
       <c r="E12" t="n">
         <v>2693</v>
@@ -2160,7 +2161,7 @@
         <v>26269</v>
       </c>
       <c r="D13" t="n">
-        <v>26269</v>
+        <v>61565</v>
       </c>
       <c r="E13" t="n">
         <v>3030</v>
@@ -2267,7 +2268,7 @@
         <v>26878</v>
       </c>
       <c r="D14" t="n">
-        <v>26878</v>
+        <v>63492</v>
       </c>
       <c r="E14" t="n">
         <v>3367</v>
@@ -2374,7 +2375,7 @@
         <v>27486</v>
       </c>
       <c r="D15" t="n">
-        <v>27486</v>
+        <v>65420</v>
       </c>
       <c r="E15" t="n">
         <v>3703</v>
@@ -2481,7 +2482,7 @@
         <v>28094</v>
       </c>
       <c r="D16" t="n">
-        <v>28094</v>
+        <v>67348</v>
       </c>
       <c r="E16" t="n">
         <v>4040</v>
@@ -2588,7 +2589,7 @@
         <v>28702</v>
       </c>
       <c r="D17" t="n">
-        <v>28702</v>
+        <v>69275</v>
       </c>
       <c r="E17" t="n">
         <v>4377</v>
@@ -6874,4 +6875,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>61</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>36272.1803456</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4239.7635611</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2558.750306</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2500</v>
+      </c>
+      <c r="X2" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>49391.66413799999</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6517.153320199999</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3729.50517</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2500</v>
+      </c>
+      <c r="X3" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>61</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>85186.84364000001</v>
+      </c>
+      <c r="U4" t="n">
+        <v>12190.2122</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7526.20963</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2500</v>
+      </c>
+      <c r="X4" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>61</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>85186.84364000001</v>
+      </c>
+      <c r="U5" t="n">
+        <v>12190.2122</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7526.20963</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2580</v>
+      </c>
+      <c r="X5" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1660</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>61</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>68647.16204</v>
+      </c>
+      <c r="U6" t="n">
+        <v>11268.4442</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6715.55243</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1380</v>
+      </c>
+      <c r="X6" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1660</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>61</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>299805.404288</v>
+      </c>
+      <c r="U7" t="n">
+        <v>44093.819088</v>
+      </c>
+      <c r="V7" t="n">
+        <v>31711.2001595</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X7" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>3060</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>61</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>225987.901568</v>
+      </c>
+      <c r="U8" t="n">
+        <v>40204.68436799999</v>
+      </c>
+      <c r="V8" t="n">
+        <v>27417.5569795</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2180</v>
+      </c>
+      <c r="X8" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>3060</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>61</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>244442.277248</v>
+      </c>
+      <c r="U9" t="n">
+        <v>41176.968048</v>
+      </c>
+      <c r="V9" t="n">
+        <v>28490.9677745</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2480</v>
+      </c>
+      <c r="X9" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>3060</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>61</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>262896.652928</v>
+      </c>
+      <c r="U10" t="n">
+        <v>42149.251728</v>
+      </c>
+      <c r="V10" t="n">
+        <v>29564.3785695</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2780</v>
+      </c>
+      <c r="X10" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>3060</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>61</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>281351.028608</v>
+      </c>
+      <c r="U11" t="n">
+        <v>43121.535408</v>
+      </c>
+      <c r="V11" t="n">
+        <v>30637.7893645</v>
+      </c>
+      <c r="W11" t="n">
+        <v>3080</v>
+      </c>
+      <c r="X11" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>3060</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>61</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>281351.028608</v>
+      </c>
+      <c r="U12" t="n">
+        <v>43121.535408</v>
+      </c>
+      <c r="V12" t="n">
+        <v>30637.7893645</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3000</v>
+      </c>
+      <c r="X12" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>61</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>412738.8120552</v>
+      </c>
+      <c r="U13" t="n">
+        <v>65033.3552756</v>
+      </c>
+      <c r="V13" t="n">
+        <v>51362.75854800001</v>
+      </c>
+      <c r="W13" t="n">
+        <v>3160</v>
+      </c>
+      <c r="X13" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3120</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>61</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>412738.8120552</v>
+      </c>
+      <c r="U14" t="n">
+        <v>65033.3552756</v>
+      </c>
+      <c r="V14" t="n">
+        <v>51362.75854800001</v>
+      </c>
+      <c r="W14" t="n">
+        <v>3240</v>
+      </c>
+      <c r="X14" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3180</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>61</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>990828.8604135999</v>
+      </c>
+      <c r="U15" t="n">
+        <v>160984.5937784</v>
+      </c>
+      <c r="V15" t="n">
+        <v>144293.582</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3560</v>
+      </c>
+      <c r="X15" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>3420</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>61</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5066494.699872799</v>
+      </c>
+      <c r="U16" t="n">
+        <v>845351.3692597999</v>
+      </c>
+      <c r="V16" t="n">
+        <v>717487.7590874999</v>
+      </c>
+      <c r="W16" t="n">
+        <v>4200</v>
+      </c>
+      <c r="X16" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>3900</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>61</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8282364.1200724</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1382970.8469242</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1166545.01705</v>
+      </c>
+      <c r="W17" t="n">
+        <v>5240</v>
+      </c>
+      <c r="X17" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>4680</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>61</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>210195.69331</v>
+      </c>
+      <c r="U18" t="n">
+        <v>41933.5722504</v>
+      </c>
+      <c r="V18" t="n">
+        <v>24783.254898</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1380</v>
+      </c>
+      <c r="X18" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1660</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>61</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>297349.7733336</v>
+      </c>
+      <c r="U19" t="n">
+        <v>52637.901444</v>
+      </c>
+      <c r="V19" t="n">
+        <v>35119.040611</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2400</v>
+      </c>
+      <c r="X19" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>61</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>388236.323392</v>
+      </c>
+      <c r="U20" t="n">
+        <v>65167.6096613</v>
+      </c>
+      <c r="V20" t="n">
+        <v>49337.0662165</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2780</v>
+      </c>
+      <c r="X20" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>3060</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>61</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>458560.5034804</v>
+      </c>
+      <c r="U21" t="n">
+        <v>75637.1647388</v>
+      </c>
+      <c r="V21" t="n">
+        <v>58831.752586</v>
+      </c>
+      <c r="W21" t="n">
+        <v>3240</v>
+      </c>
+      <c r="X21" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>3180</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>61</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>526058.6858399999</v>
+      </c>
+      <c r="U22" t="n">
+        <v>91633.95689080001</v>
+      </c>
+      <c r="V22" t="n">
+        <v>72074.948646</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3560</v>
+      </c>
+      <c r="X22" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>3420</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>61</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>666189.0809156001</v>
+      </c>
+      <c r="U23" t="n">
+        <v>124301.7469726</v>
+      </c>
+      <c r="V23" t="n">
+        <v>98971.29288750001</v>
+      </c>
+      <c r="W23" t="n">
+        <v>4200</v>
+      </c>
+      <c r="X23" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>3900</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/61.xlsx
+++ b/opm_hero_property/heroes/61.xlsx
@@ -6883,7 +6883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7077,6 +7077,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7085,31 +7125,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7121,106 +7161,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>36272.1803456</v>
+        <v>5201371.699872799</v>
       </c>
       <c r="U2" t="n">
-        <v>4239.7635611</v>
+        <v>869079.3692597999</v>
       </c>
       <c r="V2" t="n">
-        <v>2558.750306</v>
+        <v>739327.7590874999</v>
       </c>
       <c r="W2" t="n">
-        <v>2500</v>
+        <v>4200</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>3900</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>400</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1600</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>81</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>10790495.359115</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2071068.303403545</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2007622</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>15464348.96251854</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -7232,73 +7296,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>49391.66413799999</v>
+        <v>666189.0809156001</v>
       </c>
       <c r="U3" t="n">
-        <v>6517.153320199999</v>
+        <v>124301.7469726</v>
       </c>
       <c r="V3" t="n">
-        <v>3729.50517</v>
+        <v>98971.29288750001</v>
       </c>
       <c r="W3" t="n">
-        <v>2500</v>
+        <v>4200</v>
       </c>
       <c r="X3" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="AA3" t="n">
-        <v>1600</v>
+        <v>3900</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1223081.086255</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>235664.332874665</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>466485.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2108151.069129665</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7307,16 +7395,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -7325,10 +7413,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7343,10 +7431,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7357,50 +7445,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>85186.84364000001</v>
+        <v>7280.3568</v>
       </c>
       <c r="U4" t="n">
-        <v>12190.2122</v>
+        <v>1554.9257</v>
       </c>
       <c r="V4" t="n">
-        <v>7526.20963</v>
+        <v>587.6931999999999</v>
       </c>
       <c r="W4" t="n">
-        <v>2500</v>
+        <v>550</v>
       </c>
       <c r="X4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="n">
-        <v>1600</v>
+        <v>320</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7410,6 +7498,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>18619.18003</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4498.9</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23118.08003</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7418,16 +7530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7436,13 +7548,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7454,10 +7566,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7468,59 +7580,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>85186.84364000001</v>
+        <v>19181.5765</v>
       </c>
       <c r="U5" t="n">
-        <v>12190.2122</v>
+        <v>3880.8774</v>
       </c>
       <c r="V5" t="n">
-        <v>7526.20963</v>
+        <v>1781.274</v>
       </c>
       <c r="W5" t="n">
-        <v>2580</v>
+        <v>638</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>640</v>
+      </c>
+      <c r="AB5" t="n">
         <v>400</v>
       </c>
-      <c r="AA5" t="n">
-        <v>1660</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1000</v>
-      </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>46991.85606</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11906.8</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>58898.65605999999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7544,16 +7680,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7575,39 +7711,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>68647.16204</v>
+        <v>54233.67</v>
       </c>
       <c r="U6" t="n">
-        <v>11268.4442</v>
+        <v>9905.4</v>
       </c>
       <c r="V6" t="n">
-        <v>6715.55243</v>
+        <v>5695.286</v>
       </c>
       <c r="W6" t="n">
-        <v>1380</v>
+        <v>900</v>
       </c>
       <c r="X6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AA6" t="n">
-        <v>1660</v>
+        <v>1200</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7622,16 +7758,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>111590.7245</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9406.6</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>159896.3245</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7640,31 +7800,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7676,10 +7836,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7690,59 +7850,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>299805.404288</v>
+        <v>54233.67</v>
       </c>
       <c r="U7" t="n">
-        <v>44093.819088</v>
+        <v>9905.4</v>
       </c>
       <c r="V7" t="n">
-        <v>31711.2001595</v>
+        <v>5695.286</v>
       </c>
       <c r="W7" t="n">
-        <v>3380</v>
+        <v>980</v>
       </c>
       <c r="X7" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AA7" t="n">
-        <v>3060</v>
+        <v>1260</v>
       </c>
       <c r="AB7" t="n">
-        <v>1800</v>
+        <v>750</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>111590.7245</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9589.6</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>160079.3245</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7751,31 +7935,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7787,10 +7971,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7801,59 +7985,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>225987.901568</v>
+        <v>54647.16204</v>
       </c>
       <c r="U8" t="n">
-        <v>40204.68436799999</v>
+        <v>9928.4442</v>
       </c>
       <c r="V8" t="n">
-        <v>27417.5569795</v>
+        <v>5715.55243</v>
       </c>
       <c r="W8" t="n">
-        <v>2180</v>
+        <v>980</v>
       </c>
       <c r="X8" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AA8" t="n">
-        <v>3060</v>
+        <v>1260</v>
       </c>
       <c r="AB8" t="n">
-        <v>1800</v>
+        <v>750</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>111590.7245</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>689.0289925</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9589.6</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>160768.3534925</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7877,7 +8085,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7886,7 +8094,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7908,24 +8116,24 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>244442.277248</v>
+        <v>223353.464</v>
       </c>
       <c r="U9" t="n">
-        <v>41176.968048</v>
+        <v>40264.456</v>
       </c>
       <c r="V9" t="n">
-        <v>28490.9677745</v>
+        <v>27437.2159</v>
       </c>
       <c r="W9" t="n">
-        <v>2480</v>
+        <v>2180</v>
       </c>
       <c r="X9" t="n">
         <v>720</v>
@@ -7958,13 +8166,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>501678.951825</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>670090.201825</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7988,7 +8220,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7997,7 +8229,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8019,24 +8251,24 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>262896.652928</v>
+        <v>225198.901568</v>
       </c>
       <c r="U10" t="n">
-        <v>42149.251728</v>
+        <v>40361.68436799999</v>
       </c>
       <c r="V10" t="n">
-        <v>29564.3785695</v>
+        <v>27544.5569795</v>
       </c>
       <c r="W10" t="n">
-        <v>2780</v>
+        <v>2180</v>
       </c>
       <c r="X10" t="n">
         <v>720</v>
@@ -8069,13 +8301,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>501678.951825</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3133.524514325</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>673223.726339325</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8099,7 +8355,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -8108,7 +8364,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8130,24 +8386,24 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>281351.028608</v>
+        <v>243653.277248</v>
       </c>
       <c r="U11" t="n">
-        <v>43121.535408</v>
+        <v>41333.968048</v>
       </c>
       <c r="V11" t="n">
-        <v>30637.7893645</v>
+        <v>28617.9677745</v>
       </c>
       <c r="W11" t="n">
-        <v>3080</v>
+        <v>2480</v>
       </c>
       <c r="X11" t="n">
         <v>720</v>
@@ -8180,13 +8436,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>501678.951825</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>34963.769657575</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>705053.9714825749</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8210,13 +8490,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -8241,24 +8521,24 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>281351.028608</v>
+        <v>262107.652928</v>
       </c>
       <c r="U12" t="n">
-        <v>43121.535408</v>
+        <v>42306.251728</v>
       </c>
       <c r="V12" t="n">
-        <v>30637.7893645</v>
+        <v>29691.3785695</v>
       </c>
       <c r="W12" t="n">
-        <v>3000</v>
+        <v>2780</v>
       </c>
       <c r="X12" t="n">
         <v>720</v>
@@ -8270,7 +8550,7 @@
         <v>720</v>
       </c>
       <c r="AA12" t="n">
-        <v>3000</v>
+        <v>3060</v>
       </c>
       <c r="AB12" t="n">
         <v>1800</v>
@@ -8288,7 +8568,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -8298,6 +8578,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>501678.951825</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>66794.014800825</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>736884.216625825</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8306,10 +8610,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8324,13 +8628,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8342,10 +8646,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8356,20 +8660,20 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>412738.8120552</v>
+        <v>280562.028608</v>
       </c>
       <c r="U13" t="n">
-        <v>65033.3552756</v>
+        <v>43278.535408</v>
       </c>
       <c r="V13" t="n">
-        <v>51362.75854800001</v>
+        <v>30764.7893645</v>
       </c>
       <c r="W13" t="n">
-        <v>3160</v>
+        <v>3080</v>
       </c>
       <c r="X13" t="n">
         <v>720</v>
@@ -8381,7 +8685,7 @@
         <v>720</v>
       </c>
       <c r="AA13" t="n">
-        <v>3120</v>
+        <v>3060</v>
       </c>
       <c r="AB13" t="n">
         <v>1800</v>
@@ -8390,25 +8694,49 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>501678.951825</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>98624.25994407501</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>768714.4617690751</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8417,10 +8745,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8435,13 +8763,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8453,10 +8781,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8467,20 +8795,20 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>412738.8120552</v>
+        <v>280562.028608</v>
       </c>
       <c r="U14" t="n">
-        <v>65033.3552756</v>
+        <v>43278.535408</v>
       </c>
       <c r="V14" t="n">
-        <v>51362.75854800001</v>
+        <v>30764.7893645</v>
       </c>
       <c r="W14" t="n">
-        <v>3240</v>
+        <v>3000</v>
       </c>
       <c r="X14" t="n">
         <v>720</v>
@@ -8492,7 +8820,7 @@
         <v>720</v>
       </c>
       <c r="AA14" t="n">
-        <v>3180</v>
+        <v>3000</v>
       </c>
       <c r="AB14" t="n">
         <v>1800</v>
@@ -8501,25 +8829,49 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>501678.951825</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>98624.25994407501</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>38947.6</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>768531.4617690751</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8528,10 +8880,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8546,13 +8898,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8564,10 +8916,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8578,20 +8930,20 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>990828.8604135999</v>
+        <v>415238.8120552</v>
       </c>
       <c r="U15" t="n">
-        <v>160984.5937784</v>
+        <v>65841.3552756</v>
       </c>
       <c r="V15" t="n">
-        <v>144293.582</v>
+        <v>52136.75854800001</v>
       </c>
       <c r="W15" t="n">
-        <v>3560</v>
+        <v>3160</v>
       </c>
       <c r="X15" t="n">
         <v>720</v>
@@ -8603,7 +8955,7 @@
         <v>720</v>
       </c>
       <c r="AA15" t="n">
-        <v>3420</v>
+        <v>3120</v>
       </c>
       <c r="AB15" t="n">
         <v>1800</v>
@@ -8612,25 +8964,49 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>772808.11028</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>150246.61482784</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>111712</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1182146.52510784</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8639,10 +9015,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8657,13 +9033,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8675,10 +9051,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8689,20 +9065,20 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5066494.699872799</v>
+        <v>415238.8120552</v>
       </c>
       <c r="U16" t="n">
-        <v>845351.3692597999</v>
+        <v>65841.3552756</v>
       </c>
       <c r="V16" t="n">
-        <v>717487.7590874999</v>
+        <v>52136.75854800001</v>
       </c>
       <c r="W16" t="n">
-        <v>4200</v>
+        <v>3240</v>
       </c>
       <c r="X16" t="n">
         <v>720</v>
@@ -8714,7 +9090,7 @@
         <v>720</v>
       </c>
       <c r="AA16" t="n">
-        <v>3900</v>
+        <v>3180</v>
       </c>
       <c r="AB16" t="n">
         <v>1800</v>
@@ -8723,25 +9099,49 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>772808.11028</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>150246.61482784</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>111895</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1182329.52510784</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8750,10 +9150,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8768,13 +9168,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8786,10 +9186,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8800,20 +9200,20 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8282364.1200724</v>
+        <v>1028323.8604136</v>
       </c>
       <c r="U17" t="n">
-        <v>1382970.8469242</v>
+        <v>167841.5937784</v>
       </c>
       <c r="V17" t="n">
-        <v>1166545.01705</v>
+        <v>150926.582</v>
       </c>
       <c r="W17" t="n">
-        <v>5240</v>
+        <v>3560</v>
       </c>
       <c r="X17" t="n">
         <v>720</v>
@@ -8825,7 +9225,7 @@
         <v>720</v>
       </c>
       <c r="AA17" t="n">
-        <v>4680</v>
+        <v>3420</v>
       </c>
       <c r="AB17" t="n">
         <v>1800</v>
@@ -8834,58 +9234,82 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1772177.69252</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>340262.86146456</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>685692</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3067989.70398456</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8897,106 +9321,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>210195.69331</v>
+        <v>5201371.699872799</v>
       </c>
       <c r="U18" t="n">
-        <v>41933.5722504</v>
+        <v>869079.3692597999</v>
       </c>
       <c r="V18" t="n">
-        <v>24783.254898</v>
+        <v>739327.7590874999</v>
       </c>
       <c r="W18" t="n">
-        <v>1380</v>
+        <v>4200</v>
       </c>
       <c r="X18" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>3900</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
         <v>400</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1660</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>256</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>10790495.359115</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>2071068.303403545</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2007622</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>15464348.96251854</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9008,34 +9456,34 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>297349.7733336</v>
+        <v>8592082.1200724</v>
       </c>
       <c r="U19" t="n">
-        <v>52637.901444</v>
+        <v>1437003.8469242</v>
       </c>
       <c r="V19" t="n">
-        <v>35119.040611</v>
+        <v>1215777.01705</v>
       </c>
       <c r="W19" t="n">
-        <v>2400</v>
+        <v>5240</v>
       </c>
       <c r="X19" t="n">
         <v>720</v>
@@ -9047,7 +9495,7 @@
         <v>720</v>
       </c>
       <c r="AA19" t="n">
-        <v>3000</v>
+        <v>4680</v>
       </c>
       <c r="AB19" t="n">
         <v>1800</v>
@@ -9056,25 +9504,49 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>17507723.18906</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3361573.92282688</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3470670.6</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>25515700.51188688</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9083,31 +9555,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9119,73 +9591,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>388236.323392</v>
+        <v>196195.69331</v>
       </c>
       <c r="U20" t="n">
-        <v>65167.6096613</v>
+        <v>40593.5722504</v>
       </c>
       <c r="V20" t="n">
-        <v>49337.0662165</v>
+        <v>23783.254898</v>
       </c>
       <c r="W20" t="n">
-        <v>2780</v>
+        <v>980</v>
       </c>
       <c r="X20" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AA20" t="n">
-        <v>3060</v>
+        <v>1260</v>
       </c>
       <c r="AB20" t="n">
-        <v>1800</v>
+        <v>750</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>534068.4461200001</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3308.91138126</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>32982.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>617795.55750126</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9194,31 +9690,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9230,73 +9726,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>458560.5034804</v>
+        <v>267949.7733336</v>
       </c>
       <c r="U21" t="n">
-        <v>75637.1647388</v>
+        <v>49823.901444</v>
       </c>
       <c r="V21" t="n">
-        <v>58831.752586</v>
+        <v>33019.040611</v>
       </c>
       <c r="W21" t="n">
-        <v>3240</v>
+        <v>1560</v>
       </c>
       <c r="X21" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AA21" t="n">
-        <v>3180</v>
+        <v>1920</v>
       </c>
       <c r="AB21" t="n">
-        <v>1800</v>
+        <v>1125</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>631181.82015</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49107.75</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>43610.65666045</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>65965.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>808893.9268104502</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9305,10 +9825,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -9320,16 +9840,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9341,34 +9861,34 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>526058.6858399999</v>
+        <v>388236.323392</v>
       </c>
       <c r="U22" t="n">
-        <v>91633.95689080001</v>
+        <v>65167.6096613</v>
       </c>
       <c r="V22" t="n">
-        <v>72074.948646</v>
+        <v>49337.0662165</v>
       </c>
       <c r="W22" t="n">
-        <v>3560</v>
+        <v>2780</v>
       </c>
       <c r="X22" t="n">
         <v>720</v>
@@ -9380,7 +9900,7 @@
         <v>720</v>
       </c>
       <c r="AA22" t="n">
-        <v>3420</v>
+        <v>3060</v>
       </c>
       <c r="AB22" t="n">
         <v>1800</v>
@@ -9389,25 +9909,49 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>795856.2076650001</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>104850.053134845</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>95470.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1133718.960799845</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9416,10 +9960,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9434,13 +9978,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9452,10 +9996,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9466,20 +10010,20 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>666189.0809156001</v>
+        <v>458560.5034804</v>
       </c>
       <c r="U23" t="n">
-        <v>124301.7469726</v>
+        <v>75637.1647388</v>
       </c>
       <c r="V23" t="n">
-        <v>98971.29288750001</v>
+        <v>58831.752586</v>
       </c>
       <c r="W23" t="n">
-        <v>4200</v>
+        <v>3240</v>
       </c>
       <c r="X23" t="n">
         <v>720</v>
@@ -9491,7 +10035,7 @@
         <v>720</v>
       </c>
       <c r="AA23" t="n">
-        <v>3900</v>
+        <v>3180</v>
       </c>
       <c r="AB23" t="n">
         <v>1800</v>
@@ -9500,25 +10044,319 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>868423.77564</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>168467.49190762</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>150324</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1331738.51754762</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>61</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>526058.6858399999</v>
+      </c>
+      <c r="U24" t="n">
+        <v>91633.95689080001</v>
+      </c>
+      <c r="V24" t="n">
+        <v>72074.948646</v>
+      </c>
+      <c r="W24" t="n">
+        <v>3560</v>
+      </c>
+      <c r="X24" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>3420</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>983288.98554</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>190162.10756102</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>255711.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1586494.94310102</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>61</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>666189.0809156001</v>
+      </c>
+      <c r="U25" t="n">
+        <v>124301.7469726</v>
+      </c>
+      <c r="V25" t="n">
+        <v>98971.29288750001</v>
+      </c>
+      <c r="W25" t="n">
+        <v>4200</v>
+      </c>
+      <c r="X25" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>3900</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1223081.086255</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>235664.332874665</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>466485.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2108151.069129665</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/61.xlsx
+++ b/opm_hero_property/heroes/61.xlsx
@@ -997,87 +997,87 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,58241;31,13521;41,4029</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,87362;31,20294;41,0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,6932;31,1632;41,556</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,10398;31,2450;41,0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>58241.5432</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>13521.7065</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>4029.102</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>87362.31480000001</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>20294.277</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>6932.6416</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>1632.5061</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>556.2972</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>10398.9624</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>2450.1738</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1104,87 +1104,87 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,58246;31,13523;41,4029</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,87369;31,20297;41,0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,6937;31,1634;41,556</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,10406;31,2453;41,0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>58246.4992</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>13523.7837</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>4029.7176</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>87369.7488</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>20297.3946</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>6937.5976</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>1634.5833</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>556.9127999999999</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>10406.3964</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>2453.2914</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1211,87 +1211,87 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,61386;31,15042;41,4594</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,92079;31,22577;41,0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,7276;31,1798;41,619</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,10914;31,2698;41,0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>61386.62557663999</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>15042.7132354</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>4594.24866546</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>92079.93836495999</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>22577.1051332</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>7276.25794928</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>1798.1439898</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>619.27629138</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>10914.38692392</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>2698.7741684</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1318,87 +1318,87 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,64945;31,16765;41,5233</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,97418;31,25162;41,0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,7659;31,1983;41,689</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,11489;31,2976;41,0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>64945.8695736</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>16765.15487713</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>5233.71458484</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>97418.80436040001</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>25162.26017954</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>7659.4809372</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>1983.31201981</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>689.89678452</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>11489.2214058</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>2976.68667098</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1425,87 +1425,87 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,51258;31,11397;41,4084</t>
+          <t>21,69125;31,18789;41,5986</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,51258;31,11397;41,4084</t>
+          <t>21,103688;31,28201;41,0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21,25629;31,5698;41,2042</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6013;31,1335;41,527</t>
+          <t>21,8109;31,2200;41,772</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,6013;31,1335;41,527</t>
+          <t>21,12163;31,3303;41,0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21,3006;31,667;41,263</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>51258</v>
+        <v>69125.81422528</v>
       </c>
       <c r="O6" t="n">
-        <v>11397</v>
+        <v>18789.91342433</v>
       </c>
       <c r="P6" t="n">
-        <v>4084</v>
+        <v>5986.337172119999</v>
       </c>
       <c r="Q6" t="n">
-        <v>51258</v>
+        <v>103688.72133792</v>
       </c>
       <c r="R6" t="n">
-        <v>11397</v>
+        <v>28201.15255714</v>
       </c>
       <c r="S6" t="n">
-        <v>4084</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>25629</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>5698</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>2042</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>6013</v>
+        <v>8109.268442559999</v>
       </c>
       <c r="X6" t="n">
-        <v>1335</v>
+        <v>2200.91210621</v>
       </c>
       <c r="Y6" t="n">
-        <v>527</v>
+        <v>772.96260636</v>
       </c>
       <c r="Z6" t="n">
-        <v>6013</v>
+        <v>12163.90266384</v>
       </c>
       <c r="AA6" t="n">
-        <v>1335</v>
+        <v>3303.27536218</v>
       </c>
       <c r="AB6" t="n">
-        <v>527</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>3006</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>667</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1532,87 +1532,87 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,56291;31,12812;41,5156</t>
+          <t>21,75913;31,21122;41,7558</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,56291;31,12812;41,5156</t>
+          <t>21,113870;31,31702;41,0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21,28145;31,6406;41,2578</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,6560;31,1488;41,646</t>
+          <t>21,8847;31,2454;41,947</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,6560;31,1488;41,646</t>
+          <t>21,13271;31,3683;41,0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21,3280;31,744;41,323</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>56291</v>
+        <v>75913.50197264001</v>
       </c>
       <c r="O7" t="n">
-        <v>12812</v>
+        <v>21122.76572022</v>
       </c>
       <c r="P7" t="n">
-        <v>5156</v>
+        <v>7558.43925636</v>
       </c>
       <c r="Q7" t="n">
-        <v>56291</v>
+        <v>113870.25295896</v>
       </c>
       <c r="R7" t="n">
-        <v>12812</v>
+        <v>31702.45253676</v>
       </c>
       <c r="S7" t="n">
-        <v>5156</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>28145</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>6406</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>2578</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>6560</v>
+        <v>8847.636691279999</v>
       </c>
       <c r="X7" t="n">
-        <v>1488</v>
+        <v>2454.34325214</v>
       </c>
       <c r="Y7" t="n">
-        <v>646</v>
+        <v>947.6080390800001</v>
       </c>
       <c r="Z7" t="n">
-        <v>6560</v>
+        <v>13271.45503692</v>
       </c>
       <c r="AA7" t="n">
-        <v>1488</v>
+        <v>3683.64169212</v>
       </c>
       <c r="AB7" t="n">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>3280</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1639,87 +1639,87 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,62794;31,14411;41,6639</t>
+          <t>21,84682;31,23757;41,9732</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,62794;31,14411;41,6639</t>
+          <t>21,127024;31,35657;41,0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21,31397;31,7205;41,3319</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,7264;31,1661;41,810</t>
+          <t>21,9797;31,2739;41,1188</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,7264;31,1661;41,810</t>
+          <t>21,14696;31,4110;41,0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21,3632;31,830;41,405</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>62794</v>
+        <v>84682.69334479999</v>
       </c>
       <c r="O8" t="n">
-        <v>14411</v>
+        <v>23757.99604319</v>
       </c>
       <c r="P8" t="n">
-        <v>6639</v>
+        <v>9732.36028302</v>
       </c>
       <c r="Q8" t="n">
-        <v>62794</v>
+        <v>127024.0400172</v>
       </c>
       <c r="R8" t="n">
-        <v>14411</v>
+        <v>35657.58158301999</v>
       </c>
       <c r="S8" t="n">
-        <v>6639</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>31397</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>7205</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>3319</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>7264</v>
+        <v>9797.3514596</v>
       </c>
       <c r="X8" t="n">
-        <v>1661</v>
+        <v>2739.07865603</v>
       </c>
       <c r="Y8" t="n">
-        <v>810</v>
+        <v>1188.56591406</v>
       </c>
       <c r="Z8" t="n">
-        <v>7264</v>
+        <v>14696.0271894</v>
       </c>
       <c r="AA8" t="n">
-        <v>1661</v>
+        <v>4110.99153574</v>
       </c>
       <c r="AB8" t="n">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>3632</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1746,87 +1746,87 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,71153;31,16253;41,8636</t>
+          <t>21,95955;31,26795;41,12658</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,71153;31,16253;41,8636</t>
+          <t>21,143932;31,40216;41,0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21,35576;31,8126;41,4318</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,8166;31,1859;41,1031</t>
+          <t>21,11013;31,3065;41,1512</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,8166;31,1859;41,1031</t>
+          <t>21,16519;31,4601;41,0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21,4083;31,929;41,515</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>71153</v>
+        <v>95955.15367120001</v>
       </c>
       <c r="O9" t="n">
-        <v>16253</v>
+        <v>26795.45121399</v>
       </c>
       <c r="P9" t="n">
-        <v>8636</v>
+        <v>12658.44219696</v>
       </c>
       <c r="Q9" t="n">
-        <v>71153</v>
+        <v>143932.7305068</v>
       </c>
       <c r="R9" t="n">
-        <v>16253</v>
+        <v>40216.39644942</v>
       </c>
       <c r="S9" t="n">
-        <v>8636</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>35576</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>8126</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>4318</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>8166</v>
+        <v>11013.2670724</v>
       </c>
       <c r="X9" t="n">
-        <v>1859</v>
+        <v>3065.79613563</v>
       </c>
       <c r="Y9" t="n">
-        <v>1031</v>
+        <v>1512.12791088</v>
       </c>
       <c r="Z9" t="n">
-        <v>8166</v>
+        <v>16519.9006086</v>
       </c>
       <c r="AA9" t="n">
-        <v>1859</v>
+        <v>4601.35087254</v>
       </c>
       <c r="AB9" t="n">
-        <v>1031</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>4083</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>929</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1853,87 +1853,87 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,77422;31,17237;41,10298</t>
+          <t>21,104409;31,28416;41,15095</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,77422;31,17237;41,10298</t>
+          <t>21,156614;31,42649;41,0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21,38711;31,8618;41,5149</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,8842;31,1965;41,1215</t>
+          <t>21,11925;31,3240;41,1781</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,8842;31,1965;41,1215</t>
+          <t>21,17887;31,4862;41,0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21,4421;31,982;41,607</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>77422</v>
+        <v>104409.510716</v>
       </c>
       <c r="O10" t="n">
-        <v>17237</v>
+        <v>28416.60011336</v>
       </c>
       <c r="P10" t="n">
-        <v>10298</v>
+        <v>15095.26661787</v>
       </c>
       <c r="Q10" t="n">
-        <v>77422</v>
+        <v>156614.266074</v>
       </c>
       <c r="R10" t="n">
-        <v>17237</v>
+        <v>42649.52460688</v>
       </c>
       <c r="S10" t="n">
-        <v>10298</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>38711</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>8618</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>5149</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>8842</v>
+        <v>11925.215582</v>
       </c>
       <c r="X10" t="n">
-        <v>1965</v>
+        <v>3240.02934632</v>
       </c>
       <c r="Y10" t="n">
-        <v>1215</v>
+        <v>1781.57485611</v>
       </c>
       <c r="Z10" t="n">
-        <v>8842</v>
+        <v>17887.823373</v>
       </c>
       <c r="AA10" t="n">
-        <v>1965</v>
+        <v>4862.85167056</v>
       </c>
       <c r="AB10" t="n">
-        <v>1215</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>4421</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>982</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1960,87 +1960,87 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,85063;31,18403;41,12339</t>
+          <t>21,114713;31,30339;41,18086</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,85063;31,18403;41,12339</t>
+          <t>21,172070;31,45535;41,0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21,42531;31,9201;41,6169</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,9665;31,2090;41,1440</t>
+          <t>21,13035;31,3446;41,2112</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,9665;31,2090;41,1440</t>
+          <t>21,19552;31,5172;41,0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21,4832;31,1045;41,720</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>85063</v>
+        <v>114713.87215728</v>
       </c>
       <c r="O11" t="n">
-        <v>18403</v>
+        <v>30339.7774182</v>
       </c>
       <c r="P11" t="n">
-        <v>12339</v>
+        <v>18086.61514149</v>
       </c>
       <c r="Q11" t="n">
-        <v>85063</v>
+        <v>172070.80823592</v>
       </c>
       <c r="R11" t="n">
-        <v>18403</v>
+        <v>45535.95709559999</v>
       </c>
       <c r="S11" t="n">
-        <v>12339</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>42531</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>9201</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6169</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>9665</v>
+        <v>13035.02185656</v>
       </c>
       <c r="X11" t="n">
-        <v>2090</v>
+        <v>3446.4061134</v>
       </c>
       <c r="Y11" t="n">
-        <v>1440</v>
+        <v>2112.06034197</v>
       </c>
       <c r="Z11" t="n">
-        <v>9665</v>
+        <v>19552.53278484</v>
       </c>
       <c r="AA11" t="n">
-        <v>2090</v>
+        <v>5172.5956572</v>
       </c>
       <c r="AB11" t="n">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>4832</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1045</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2067,87 +2067,87 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,99144;31,20860;41,15971</t>
+          <t>21,133703;31,34389;41,23410</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,99144;31,20860;41,15971</t>
+          <t>21,200555;31,51614;41,0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21,49572;31,10430;41,7985</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,11180;31,2354;41,1841</t>
+          <t>21,15077;31,3880;41,2699</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,11180;31,2354;41,1841</t>
+          <t>21,22615;31,5824;41,0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21,5590;31,1177;41,920</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>99144</v>
+        <v>133703.4807808</v>
       </c>
       <c r="O12" t="n">
-        <v>20860</v>
+        <v>34389.75953421</v>
       </c>
       <c r="P12" t="n">
-        <v>15971</v>
+        <v>23410.30458087</v>
       </c>
       <c r="Q12" t="n">
-        <v>99144</v>
+        <v>200555.2211712</v>
       </c>
       <c r="R12" t="n">
-        <v>20860</v>
+        <v>51614.43978618</v>
       </c>
       <c r="S12" t="n">
-        <v>15971</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>49572</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>10430</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>7985</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>11180</v>
+        <v>15077.3002816</v>
       </c>
       <c r="X12" t="n">
-        <v>2354</v>
+        <v>3880.882387770001</v>
       </c>
       <c r="Y12" t="n">
-        <v>1841</v>
+        <v>2699.53859511</v>
       </c>
       <c r="Z12" t="n">
-        <v>11180</v>
+        <v>22615.9504224</v>
       </c>
       <c r="AA12" t="n">
-        <v>2354</v>
+        <v>5824.686564660001</v>
       </c>
       <c r="AB12" t="n">
-        <v>1841</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>5590</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1177</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>920</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2174,87 +2174,87 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,101323;31,21353;41,16486</t>
+          <t>21,136642;31,35202;41,24164</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,101323;31,21353;41,16486</t>
+          <t>21,204963;31,52834;41,0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21,50661;31,10676;41,8243</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,11422;31,2408;41,1899</t>
+          <t>21,15404;31,3970;41,2784</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,11422;31,2408;41,1899</t>
+          <t>21,23106;31,5959;41,0</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21,5711;31,1204;41,949</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>101323</v>
+        <v>136642.05695536</v>
       </c>
       <c r="O13" t="n">
-        <v>21353</v>
+        <v>35202.52487309001</v>
       </c>
       <c r="P13" t="n">
-        <v>16486</v>
+        <v>24164.97916815</v>
       </c>
       <c r="Q13" t="n">
-        <v>101323</v>
+        <v>204963.08543304</v>
       </c>
       <c r="R13" t="n">
-        <v>21353</v>
+        <v>52834.29209722</v>
       </c>
       <c r="S13" t="n">
-        <v>16486</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>50661</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>10676</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>8243</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>11422</v>
+        <v>15404.25336472</v>
       </c>
       <c r="X13" t="n">
-        <v>2408</v>
+        <v>3970.78434233</v>
       </c>
       <c r="Y13" t="n">
-        <v>1899</v>
+        <v>2784.65641695</v>
       </c>
       <c r="Z13" t="n">
-        <v>11422</v>
+        <v>23106.38004708</v>
       </c>
       <c r="AA13" t="n">
-        <v>2408</v>
+        <v>5959.617401139999</v>
       </c>
       <c r="AB13" t="n">
-        <v>1899</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>5711</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1204</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2281,87 +2281,87 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,103506;31,21847;41,17001</t>
+          <t>21,139586;31,36016;41,24919</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,103506;31,21847;41,17001</t>
+          <t>21,209379;31,54056;41,0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21,51753;31,10923;41,8500</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,11665;31,2463;41,1957</t>
+          <t>21,15731;31,4060;41,2869</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,11665;31,2463;41,1957</t>
+          <t>21,23597;31,6094;41,0</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21,5832;31,1231;41,978</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>103506</v>
+        <v>139586.37511376</v>
       </c>
       <c r="O14" t="n">
-        <v>21847</v>
+        <v>36016.67843358</v>
       </c>
       <c r="P14" t="n">
-        <v>17001</v>
+        <v>24919.31503692</v>
       </c>
       <c r="Q14" t="n">
-        <v>103506</v>
+        <v>209379.56267064</v>
       </c>
       <c r="R14" t="n">
-        <v>21847</v>
+        <v>54056.22794364</v>
       </c>
       <c r="S14" t="n">
-        <v>17001</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>51753</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>10923</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>8500</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>11665</v>
+        <v>15731.81754152</v>
       </c>
       <c r="X14" t="n">
-        <v>2463</v>
+        <v>4060.88559846</v>
       </c>
       <c r="Y14" t="n">
-        <v>1957</v>
+        <v>2869.78280076</v>
       </c>
       <c r="Z14" t="n">
-        <v>11665</v>
+        <v>23597.72631228</v>
       </c>
       <c r="AA14" t="n">
-        <v>2463</v>
+        <v>6094.84736268</v>
       </c>
       <c r="AB14" t="n">
-        <v>1957</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>5832</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1231</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2388,87 +2388,87 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,105685;31,22340;41,17516</t>
+          <t>21,142524;31,36829;41,25673</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,105685;31,22340;41,17516</t>
+          <t>21,213787;31,55276;41,0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21,52842;31,11170;41,8758</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,11907;31,2517;41,2016</t>
+          <t>21,16058;31,4150;41,2954</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,11907;31,2517;41,2016</t>
+          <t>21,24088;31,6229;41,0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21,5953;31,1258;41,1008</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>105685</v>
+        <v>142524.90408832</v>
       </c>
       <c r="O15" t="n">
-        <v>22340</v>
+        <v>36829.50147246</v>
       </c>
       <c r="P15" t="n">
-        <v>17516</v>
+        <v>25673.9896242</v>
       </c>
       <c r="Q15" t="n">
-        <v>105685</v>
+        <v>213787.35613248</v>
       </c>
       <c r="R15" t="n">
-        <v>22340</v>
+        <v>55276.16685468</v>
       </c>
       <c r="S15" t="n">
-        <v>17516</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>52842</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>11170</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>8758</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>11907</v>
+        <v>16058.72342464</v>
       </c>
       <c r="X15" t="n">
-        <v>2517</v>
+        <v>4150.84525302</v>
       </c>
       <c r="Y15" t="n">
-        <v>2016</v>
+        <v>2954.9006226</v>
       </c>
       <c r="Z15" t="n">
-        <v>11907</v>
+        <v>24088.08513696</v>
       </c>
       <c r="AA15" t="n">
-        <v>2517</v>
+        <v>6229.86479916</v>
       </c>
       <c r="AB15" t="n">
-        <v>2016</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>5953</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1258</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>1008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2495,87 +2495,87 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,107869;31,22833;41,18031</t>
+          <t>21,145469;31,37642;41,26428</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,107869;31,22833;41,18031</t>
+          <t>21,218203;31,56496;41,0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21,53934;31,11416;41,9015</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,12150;31,2572;41,2074</t>
+          <t>21,16386;31,4240;41,3040</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,12150;31,2572;41,2074</t>
+          <t>21,24579;31,6364;41,0</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21,6075;31,1286;41,1037</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>107869</v>
+        <v>145469.22224672</v>
       </c>
       <c r="O16" t="n">
-        <v>22833</v>
+        <v>37642.26681134001</v>
       </c>
       <c r="P16" t="n">
-        <v>18031</v>
+        <v>26428.66421148</v>
       </c>
       <c r="Q16" t="n">
-        <v>107869</v>
+        <v>218203.83337008</v>
       </c>
       <c r="R16" t="n">
-        <v>22833</v>
+        <v>56496.01916572</v>
       </c>
       <c r="S16" t="n">
-        <v>18031</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>53934</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>11416</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>9015</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>12150</v>
+        <v>16386.28760144</v>
       </c>
       <c r="X16" t="n">
-        <v>2572</v>
+        <v>4240.747207580001</v>
       </c>
       <c r="Y16" t="n">
-        <v>2074</v>
+        <v>3040.01844444</v>
       </c>
       <c r="Z16" t="n">
-        <v>12150</v>
+        <v>24579.43140216</v>
       </c>
       <c r="AA16" t="n">
-        <v>2572</v>
+        <v>6364.79563564</v>
       </c>
       <c r="AB16" t="n">
-        <v>2074</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>6075</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1286</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>1037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2602,87 +2602,87 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,110048;31,23326;41,18545</t>
+          <t>21,148407;31,38455;41,27182</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,110048;31,23326;41,18545</t>
+          <t>21,222611;31,57715;41,0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>21,55024;31,11663;41,9272</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,12393;31,2626;41,2132</t>
+          <t>21,16713;31,4330;41,3125</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,12393;31,2626;41,2132</t>
+          <t>21,25069;31,6499;41,0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>21,6196;31,1313;41,1066</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>110048</v>
+        <v>148407.79842128</v>
       </c>
       <c r="O17" t="n">
-        <v>23326</v>
+        <v>38455.08985022</v>
       </c>
       <c r="P17" t="n">
-        <v>18545</v>
+        <v>27182.94878025</v>
       </c>
       <c r="Q17" t="n">
-        <v>110048</v>
+        <v>222611.69763192</v>
       </c>
       <c r="R17" t="n">
-        <v>23326</v>
+        <v>57715.95807675999</v>
       </c>
       <c r="S17" t="n">
-        <v>18545</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>55024</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>11663</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>9272</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>12393</v>
+        <v>16713.24068456</v>
       </c>
       <c r="X17" t="n">
-        <v>2626</v>
+        <v>4330.70686214</v>
       </c>
       <c r="Y17" t="n">
-        <v>2132</v>
+        <v>3125.09352825</v>
       </c>
       <c r="Z17" t="n">
-        <v>12393</v>
+        <v>25069.86102684</v>
       </c>
       <c r="AA17" t="n">
-        <v>2626</v>
+        <v>6499.81307212</v>
       </c>
       <c r="AB17" t="n">
-        <v>2132</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>6196</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1313</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1066</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5447,141 +5447,141 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6656</v>
+        <v>8319</v>
       </c>
       <c r="C2" t="n">
-        <v>1497</v>
+        <v>2155</v>
       </c>
       <c r="D2" t="n">
-        <v>779</v>
+        <v>1523</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="H2" t="n">
-        <v>6656</v>
+        <v>7758</v>
       </c>
       <c r="I2" t="n">
-        <v>1497</v>
+        <v>2009</v>
       </c>
       <c r="J2" t="n">
-        <v>779</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="L2" t="n">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3328</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>748</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>389</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>5003</v>
+        <v>4408</v>
       </c>
       <c r="U2" t="n">
-        <v>874</v>
+        <v>1196</v>
       </c>
       <c r="V2" t="n">
-        <v>727</v>
+        <v>611</v>
       </c>
       <c r="W2" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="X2" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="Y2" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="Z2" t="n">
-        <v>5003</v>
+        <v>4111</v>
       </c>
       <c r="AA2" t="n">
-        <v>874</v>
+        <v>1115</v>
       </c>
       <c r="AB2" t="n">
-        <v>727</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="AD2" t="n">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="AE2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>2501</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>437</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>21,6656;31,1497;41,779;22,40;32,40;42,40</t>
+          <t>21,8319;31,2155;41,1523;22,54;32,66;42,58</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>21,6656;31,1497;41,779;22,40;32,40;42,40</t>
+          <t>21,7758;31,2009;41,0;22,81;32,99;42,0</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21,3328;31,748;41,389;22,20;32,20;42,20</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,4408;31,1196;41,611;22,47;32,57;42,51</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,4111;31,1115;41,0;22,70;32,86;42,0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>21,2501;31,437;41,363;22,17;32,17;42,17</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5590,141 +5590,141 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13277</v>
+        <v>16639</v>
       </c>
       <c r="C3" t="n">
-        <v>2879</v>
+        <v>4310</v>
       </c>
       <c r="D3" t="n">
-        <v>1669</v>
+        <v>3046</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="F3" t="n">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="H3" t="n">
-        <v>13277</v>
+        <v>15517</v>
       </c>
       <c r="I3" t="n">
-        <v>2879</v>
+        <v>4019</v>
       </c>
       <c r="J3" t="n">
-        <v>1669</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="L3" t="n">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>6638</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1439</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>834</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>5241</v>
+        <v>5029</v>
       </c>
       <c r="U3" t="n">
-        <v>915</v>
+        <v>1329</v>
       </c>
       <c r="V3" t="n">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="W3" t="n">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="X3" t="n">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="Y3" t="n">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="Z3" t="n">
-        <v>5241</v>
+        <v>4690</v>
       </c>
       <c r="AA3" t="n">
-        <v>915</v>
+        <v>1239</v>
       </c>
       <c r="AB3" t="n">
-        <v>768</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="AD3" t="n">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="AE3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>2620</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>457</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>21,13277;31,2879;41,1669;22,80;32,80;42,80</t>
+          <t>21,16639;31,4310;41,3046;22,108;32,132;42,117</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>21,13277;31,2879;41,1669;22,80;32,80;42,80</t>
+          <t>21,15517;31,4019;41,0;22,162;32,198;42,0</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>21,6638;31,1439;41,834;22,40;32,40;42,40</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,5029;31,1329;41,758;22,94;32,115;42,102</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,4690;31,1239;41,0;22,141;32,173;42,0</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>21,2620;31,457;41,384;22,35;32,35;42,35</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5733,141 +5733,141 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19571</v>
+        <v>24958</v>
       </c>
       <c r="C4" t="n">
-        <v>4128</v>
+        <v>6466</v>
       </c>
       <c r="D4" t="n">
-        <v>2705</v>
+        <v>4569</v>
       </c>
       <c r="E4" t="n">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="F4" t="n">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="H4" t="n">
-        <v>19571</v>
+        <v>23275</v>
       </c>
       <c r="I4" t="n">
-        <v>4128</v>
+        <v>6029</v>
       </c>
       <c r="J4" t="n">
-        <v>2705</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>120</v>
+        <v>243</v>
       </c>
       <c r="L4" t="n">
-        <v>120</v>
+        <v>297</v>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>9785</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2064</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1352</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>5490</v>
+        <v>6067</v>
       </c>
       <c r="U4" t="n">
-        <v>959</v>
+        <v>1561</v>
       </c>
       <c r="V4" t="n">
-        <v>812</v>
+        <v>1015</v>
       </c>
       <c r="W4" t="n">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="X4" t="n">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="Y4" t="n">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="Z4" t="n">
-        <v>5490</v>
+        <v>5658</v>
       </c>
       <c r="AA4" t="n">
-        <v>959</v>
+        <v>1456</v>
       </c>
       <c r="AB4" t="n">
-        <v>812</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>105</v>
+        <v>212</v>
       </c>
       <c r="AD4" t="n">
-        <v>105</v>
+        <v>259</v>
       </c>
       <c r="AE4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>2745</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>21,19571;31,4128;41,2705;22,120;32,120;42,120</t>
+          <t>21,24958;31,6466;41,4569;22,162;32,198;42,176</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>21,19571;31,4128;41,2705;22,120;32,120;42,120</t>
+          <t>21,23275;31,6029;41,0;22,243;32,297;42,0</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>21,9785;31,2064;41,1352;22,60;32,60;42,60</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,6067;31,1561;41,1015;22,141;32,173;42,154</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,5658;31,1456;41,0;22,212;32,259;42,0</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>21,2745;31,479;41,406;22,52;32,52;42,52</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5876,141 +5876,141 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>25988</v>
+        <v>33278</v>
       </c>
       <c r="C5" t="n">
-        <v>5485</v>
+        <v>8621</v>
       </c>
       <c r="D5" t="n">
-        <v>3642</v>
+        <v>6093</v>
       </c>
       <c r="E5" t="n">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="F5" t="n">
-        <v>160</v>
+        <v>264</v>
       </c>
       <c r="G5" t="n">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="H5" t="n">
-        <v>25988</v>
+        <v>31034</v>
       </c>
       <c r="I5" t="n">
-        <v>5485</v>
+        <v>8039</v>
       </c>
       <c r="J5" t="n">
-        <v>3642</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>160</v>
+        <v>324</v>
       </c>
       <c r="L5" t="n">
-        <v>160</v>
+        <v>396</v>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>12994</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2742</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1821</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>5881</v>
+        <v>6492</v>
       </c>
       <c r="U5" t="n">
-        <v>1026</v>
+        <v>1673</v>
       </c>
       <c r="V5" t="n">
-        <v>883</v>
+        <v>1105</v>
       </c>
       <c r="W5" t="n">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="X5" t="n">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="Y5" t="n">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="Z5" t="n">
-        <v>5881</v>
+        <v>6054</v>
       </c>
       <c r="AA5" t="n">
-        <v>1026</v>
+        <v>1560</v>
       </c>
       <c r="AB5" t="n">
-        <v>883</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>140</v>
+        <v>283</v>
       </c>
       <c r="AD5" t="n">
-        <v>140</v>
+        <v>346</v>
       </c>
       <c r="AE5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>2940</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>513</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>441</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>21,25988;31,5485;41,3642;22,160;32,160;42,160</t>
+          <t>21,33278;31,8621;41,6093;22,216;32,264;42,234</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>21,25988;31,5485;41,3642;22,160;32,160;42,160</t>
+          <t>21,31034;31,8039;41,0;22,324;32,396;42,0</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>21,12994;31,2742;41,1821;22,80;32,80;42,80</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,6492;31,1673;41,1105;22,189;32,231;42,205</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,6054;31,1560;41,0;22,283;32,346;42,0</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>21,2940;31,513;41,441;22,70;32,70;42,70</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6019,141 +6019,141 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>32359</v>
+        <v>41598</v>
       </c>
       <c r="C6" t="n">
-        <v>6836</v>
+        <v>10776</v>
       </c>
       <c r="D6" t="n">
-        <v>4595</v>
+        <v>7616</v>
       </c>
       <c r="E6" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="F6" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="G6" t="n">
-        <v>200</v>
+        <v>293</v>
       </c>
       <c r="H6" t="n">
-        <v>32359</v>
+        <v>38792</v>
       </c>
       <c r="I6" t="n">
-        <v>6836</v>
+        <v>10049</v>
       </c>
       <c r="J6" t="n">
-        <v>4595</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>405</v>
       </c>
       <c r="L6" t="n">
-        <v>200</v>
+        <v>495</v>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>16179</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3418</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2297</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>6161</v>
+        <v>6945</v>
       </c>
       <c r="U6" t="n">
-        <v>1075</v>
+        <v>1792</v>
       </c>
       <c r="V6" t="n">
-        <v>932</v>
+        <v>1202</v>
       </c>
       <c r="W6" t="n">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="X6" t="n">
-        <v>175</v>
+        <v>288</v>
       </c>
       <c r="Y6" t="n">
-        <v>175</v>
+        <v>256</v>
       </c>
       <c r="Z6" t="n">
-        <v>6161</v>
+        <v>6476</v>
       </c>
       <c r="AA6" t="n">
-        <v>1075</v>
+        <v>1671</v>
       </c>
       <c r="AB6" t="n">
-        <v>932</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>175</v>
+        <v>354</v>
       </c>
       <c r="AD6" t="n">
-        <v>175</v>
+        <v>433</v>
       </c>
       <c r="AE6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>3080</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>537</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>21,32359;31,6836;41,4595;22,200;32,200;42,200</t>
+          <t>21,41598;31,10776;41,7616;22,270;32,330;42,293</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>21,32359;31,6836;41,4595;22,200;32,200;42,200</t>
+          <t>21,38792;31,10049;41,0;22,405;32,495;42,0</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>21,16179;31,3418;41,2297;22,100;32,100;42,100</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,6945;31,1792;41,1202;22,236;32,288;42,256</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,6476;31,1671;41,0;22,354;32,433;42,0</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>21,3080;31,537;41,466;22,87;32,87;42,87</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6162,141 +6162,141 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37668</v>
+        <v>49917</v>
       </c>
       <c r="C7" t="n">
-        <v>7965</v>
+        <v>12932</v>
       </c>
       <c r="D7" t="n">
-        <v>5958</v>
+        <v>9139</v>
       </c>
       <c r="E7" t="n">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="F7" t="n">
-        <v>240</v>
+        <v>396</v>
       </c>
       <c r="G7" t="n">
-        <v>240</v>
+        <v>352</v>
       </c>
       <c r="H7" t="n">
-        <v>37668</v>
+        <v>46551</v>
       </c>
       <c r="I7" t="n">
-        <v>7965</v>
+        <v>12059</v>
       </c>
       <c r="J7" t="n">
-        <v>5958</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>240</v>
+        <v>486</v>
       </c>
       <c r="L7" t="n">
-        <v>240</v>
+        <v>594</v>
       </c>
       <c r="M7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>18834</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>3982</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2979</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>6454</v>
+        <v>7426</v>
       </c>
       <c r="U7" t="n">
-        <v>1126</v>
+        <v>1919</v>
       </c>
       <c r="V7" t="n">
-        <v>984</v>
+        <v>1306</v>
       </c>
       <c r="W7" t="n">
-        <v>210</v>
+        <v>283</v>
       </c>
       <c r="X7" t="n">
-        <v>210</v>
+        <v>346</v>
       </c>
       <c r="Y7" t="n">
-        <v>210</v>
+        <v>308</v>
       </c>
       <c r="Z7" t="n">
-        <v>6454</v>
+        <v>6925</v>
       </c>
       <c r="AA7" t="n">
-        <v>1126</v>
+        <v>1789</v>
       </c>
       <c r="AB7" t="n">
-        <v>984</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>210</v>
+        <v>425</v>
       </c>
       <c r="AD7" t="n">
-        <v>210</v>
+        <v>519</v>
       </c>
       <c r="AE7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>3227</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>563</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>21,37668;31,7965;41,5958;22,240;32,240;42,240</t>
+          <t>21,49917;31,12932;41,9139;22,324;32,396;42,352</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>21,37668;31,7965;41,5958;22,240;32,240;42,240</t>
+          <t>21,46551;31,12059;41,0;22,486;32,594;42,0</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>21,18834;31,3982;41,2979;22,120;32,120;42,120</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,7426;31,1919;41,1306;22,283;32,346;42,308</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,6925;31,1789;41,0;22,425;32,519;42,0</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>21,3227;31,563;41,492;22,105;32,105;42,105</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6305,141 +6305,141 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>42944</v>
+        <v>58237</v>
       </c>
       <c r="C8" t="n">
-        <v>9091</v>
+        <v>15087</v>
       </c>
       <c r="D8" t="n">
-        <v>7330</v>
+        <v>10662</v>
       </c>
       <c r="E8" t="n">
-        <v>280</v>
+        <v>378</v>
       </c>
       <c r="F8" t="n">
-        <v>280</v>
+        <v>462</v>
       </c>
       <c r="G8" t="n">
-        <v>280</v>
+        <v>410</v>
       </c>
       <c r="H8" t="n">
-        <v>42944</v>
+        <v>54309</v>
       </c>
       <c r="I8" t="n">
-        <v>9091</v>
+        <v>14069</v>
       </c>
       <c r="J8" t="n">
-        <v>7330</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>280</v>
+        <v>567</v>
       </c>
       <c r="L8" t="n">
-        <v>280</v>
+        <v>693</v>
       </c>
       <c r="M8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>21472</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>4545</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>3665</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>6762</v>
+        <v>7938</v>
       </c>
       <c r="U8" t="n">
-        <v>1179</v>
+        <v>2054</v>
       </c>
       <c r="V8" t="n">
-        <v>1038</v>
+        <v>1418</v>
       </c>
       <c r="W8" t="n">
-        <v>245</v>
+        <v>330</v>
       </c>
       <c r="X8" t="n">
-        <v>245</v>
+        <v>404</v>
       </c>
       <c r="Y8" t="n">
-        <v>245</v>
+        <v>359</v>
       </c>
       <c r="Z8" t="n">
-        <v>6762</v>
+        <v>7402</v>
       </c>
       <c r="AA8" t="n">
-        <v>1179</v>
+        <v>1915</v>
       </c>
       <c r="AB8" t="n">
-        <v>1038</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>245</v>
+        <v>496</v>
       </c>
       <c r="AD8" t="n">
-        <v>245</v>
+        <v>606</v>
       </c>
       <c r="AE8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>3381</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>519</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>21,42944;31,9091;41,7330;22,280;32,280;42,280</t>
+          <t>21,58237;31,15087;41,10662;22,378;32,462;42,410</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>21,42944;31,9091;41,7330;22,280;32,280;42,280</t>
+          <t>21,54309;31,14069;41,0;22,567;32,693;42,0</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>21,21472;31,4545;41,3665;22,140;32,140;42,140</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,7938;31,2054;41,1418;22,330;32,404;42,359</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,7402;31,1915;41,0;22,496;32,606;42,0</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>21,3381;31,589;41,519;22,122;32,122;42,122</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6448,141 +6448,141 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>48606</v>
+        <v>66556</v>
       </c>
       <c r="C9" t="n">
-        <v>10302</v>
+        <v>17242</v>
       </c>
       <c r="D9" t="n">
-        <v>8544</v>
+        <v>12186</v>
       </c>
       <c r="E9" t="n">
-        <v>315</v>
+        <v>425</v>
       </c>
       <c r="F9" t="n">
-        <v>315</v>
+        <v>519</v>
       </c>
       <c r="G9" t="n">
-        <v>315</v>
+        <v>462</v>
       </c>
       <c r="H9" t="n">
-        <v>48606</v>
+        <v>62068</v>
       </c>
       <c r="I9" t="n">
-        <v>10302</v>
+        <v>16079</v>
       </c>
       <c r="J9" t="n">
-        <v>8544</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>315</v>
+        <v>637</v>
       </c>
       <c r="L9" t="n">
-        <v>315</v>
+        <v>779</v>
       </c>
       <c r="M9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>24303</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>5151</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>4272</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>7353</v>
+        <v>8804</v>
       </c>
       <c r="U9" t="n">
-        <v>1283</v>
+        <v>2280</v>
       </c>
       <c r="V9" t="n">
-        <v>1144</v>
+        <v>1606</v>
       </c>
       <c r="W9" t="n">
-        <v>280</v>
+        <v>378</v>
       </c>
       <c r="X9" t="n">
-        <v>280</v>
+        <v>462</v>
       </c>
       <c r="Y9" t="n">
-        <v>280</v>
+        <v>410</v>
       </c>
       <c r="Z9" t="n">
-        <v>7353</v>
+        <v>8210</v>
       </c>
       <c r="AA9" t="n">
-        <v>1283</v>
+        <v>2127</v>
       </c>
       <c r="AB9" t="n">
-        <v>1144</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>280</v>
+        <v>567</v>
       </c>
       <c r="AD9" t="n">
-        <v>280</v>
+        <v>693</v>
       </c>
       <c r="AE9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>3676</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>641</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>21,48606;31,10302;41,8544;22,315;32,315;42,315</t>
+          <t>21,66556;31,17242;41,12186;22,425;32,519;42,462</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>21,48606;31,10302;41,8544;22,315;32,315;42,315</t>
+          <t>21,62068;31,16079;41,0;22,637;32,779;42,0</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>21,24303;31,5151;41,4272;22,157;32,157;42,157</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,8804;31,2280;41,1606;22,378;32,462;42,410</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,8210;31,2127;41,0;22,567;32,693;42,0</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>21,3676;31,641;41,572;22,140;32,140;42,140</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6591,141 +6591,141 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>55170</v>
+        <v>74876</v>
       </c>
       <c r="C10" t="n">
-        <v>11694</v>
+        <v>19398</v>
       </c>
       <c r="D10" t="n">
-        <v>9410</v>
+        <v>13709</v>
       </c>
       <c r="E10" t="n">
-        <v>335</v>
+        <v>452</v>
       </c>
       <c r="F10" t="n">
-        <v>335</v>
+        <v>552</v>
       </c>
       <c r="G10" t="n">
-        <v>335</v>
+        <v>491</v>
       </c>
       <c r="H10" t="n">
-        <v>55170</v>
+        <v>69826</v>
       </c>
       <c r="I10" t="n">
-        <v>11694</v>
+        <v>18089</v>
       </c>
       <c r="J10" t="n">
-        <v>9410</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>335</v>
+        <v>678</v>
       </c>
       <c r="L10" t="n">
-        <v>335</v>
+        <v>829</v>
       </c>
       <c r="M10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>27585</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5847</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>4705</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>7961</v>
+        <v>9532</v>
       </c>
       <c r="U10" t="n">
-        <v>1389</v>
+        <v>2469</v>
       </c>
       <c r="V10" t="n">
-        <v>1254</v>
+        <v>1761</v>
       </c>
       <c r="W10" t="n">
-        <v>315</v>
+        <v>425</v>
       </c>
       <c r="X10" t="n">
-        <v>315</v>
+        <v>519</v>
       </c>
       <c r="Y10" t="n">
-        <v>315</v>
+        <v>462</v>
       </c>
       <c r="Z10" t="n">
-        <v>7961</v>
+        <v>8890</v>
       </c>
       <c r="AA10" t="n">
-        <v>1389</v>
+        <v>2303</v>
       </c>
       <c r="AB10" t="n">
-        <v>1254</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>315</v>
+        <v>637</v>
       </c>
       <c r="AD10" t="n">
-        <v>315</v>
+        <v>779</v>
       </c>
       <c r="AE10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>3980</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>694</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>21,55170;31,11694;41,9410;22,335;32,335;42,335</t>
+          <t>21,74876;31,19398;41,13709;22,452;32,552;42,491</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>21,55170;31,11694;41,9410;22,335;32,335;42,335</t>
+          <t>21,69826;31,18089;41,0;22,678;32,829;42,0</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>21,27585;31,5847;41,4705;22,167;32,167;42,167</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,9532;31,2469;41,1761;22,425;32,519;42,462</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,8890;31,2303;41,0;22,637;32,779;42,0</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>21,3980;31,694;41,627;22,157;32,157;42,157</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6734,141 +6734,141 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>61626</v>
+        <v>83196</v>
       </c>
       <c r="C11" t="n">
-        <v>13062</v>
+        <v>21553</v>
       </c>
       <c r="D11" t="n">
-        <v>10385</v>
+        <v>15232</v>
       </c>
       <c r="E11" t="n">
-        <v>350</v>
+        <v>472</v>
       </c>
       <c r="F11" t="n">
-        <v>350</v>
+        <v>577</v>
       </c>
       <c r="G11" t="n">
-        <v>350</v>
+        <v>513</v>
       </c>
       <c r="H11" t="n">
-        <v>61626</v>
+        <v>77585</v>
       </c>
       <c r="I11" t="n">
-        <v>13062</v>
+        <v>20099</v>
       </c>
       <c r="J11" t="n">
-        <v>10385</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>350</v>
+        <v>708</v>
       </c>
       <c r="L11" t="n">
-        <v>350</v>
+        <v>866</v>
       </c>
       <c r="M11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>30813</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>6531</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>5192</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8582</v>
+        <v>10277</v>
       </c>
       <c r="U11" t="n">
-        <v>1497</v>
+        <v>2662</v>
       </c>
       <c r="V11" t="n">
-        <v>1368</v>
+        <v>1921</v>
       </c>
       <c r="W11" t="n">
-        <v>350</v>
+        <v>472</v>
       </c>
       <c r="X11" t="n">
-        <v>350</v>
+        <v>577</v>
       </c>
       <c r="Y11" t="n">
-        <v>350</v>
+        <v>513</v>
       </c>
       <c r="Z11" t="n">
-        <v>8582</v>
+        <v>9584</v>
       </c>
       <c r="AA11" t="n">
-        <v>1497</v>
+        <v>2483</v>
       </c>
       <c r="AB11" t="n">
-        <v>1368</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>350</v>
+        <v>708</v>
       </c>
       <c r="AD11" t="n">
-        <v>350</v>
+        <v>866</v>
       </c>
       <c r="AE11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>4291</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>748</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>684</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>21,61626;31,13062;41,10385;22,350;32,350;42,350</t>
+          <t>21,83196;31,21553;41,15232;22,472;32,577;42,513</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>21,61626;31,13062;41,10385;22,350;32,350;42,350</t>
+          <t>21,77585;31,20099;41,0;22,708;32,866;42,0</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>21,30813;31,6531;41,5192;22,175;32,175;42,175</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,10277;31,2662;41,1921;22,472;32,577;42,513</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,9584;31,2483;41,0;22,708;32,866;42,0</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>21,4291;31,748;41,684;22,175;32,175;42,175</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -7179,13 +7179,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5201371.699872799</v>
+        <v>5432975.49829408</v>
       </c>
       <c r="U2" t="n">
-        <v>869079.3692597999</v>
+        <v>929087.45911002</v>
       </c>
       <c r="V2" t="n">
-        <v>739327.7590874999</v>
+        <v>781742.70786775</v>
       </c>
       <c r="W2" t="n">
         <v>4200</v>
@@ -7226,8 +7226,16 @@
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,300196;31,77814;41,0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL2" t="n">
         <v>10790495.359115</v>
       </c>
@@ -7247,10 +7255,10 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>889545.5738742356</v>
       </c>
       <c r="AS2" t="n">
-        <v>15464348.96251854</v>
+        <v>16353894.53639278</v>
       </c>
     </row>
     <row r="3">
@@ -7314,13 +7322,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>666189.0809156001</v>
+        <v>693179.3216001601</v>
       </c>
       <c r="U3" t="n">
-        <v>124301.7469726</v>
+        <v>131294.45383474</v>
       </c>
       <c r="V3" t="n">
-        <v>98971.29288750001</v>
+        <v>104017.38641575</v>
       </c>
       <c r="W3" t="n">
         <v>4200</v>
@@ -7361,8 +7369,16 @@
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,34653;31,8982;41,0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL3" t="n">
         <v>1223081.086255</v>
       </c>
@@ -7382,10 +7398,10 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>104254.9558207635</v>
       </c>
       <c r="AS3" t="n">
-        <v>2108151.069129665</v>
+        <v>2212406.024950429</v>
       </c>
     </row>
     <row r="4">
@@ -7854,13 +7870,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>54233.67</v>
+        <v>62738.741418</v>
       </c>
       <c r="U7" t="n">
-        <v>9905.4</v>
+        <v>12111.09724</v>
       </c>
       <c r="V7" t="n">
-        <v>5695.286</v>
+        <v>7241.7950588</v>
       </c>
       <c r="W7" t="n">
         <v>980</v>
@@ -7901,8 +7917,16 @@
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,8037;31,2085;41,0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL7" t="n">
         <v>111590.7245</v>
       </c>
@@ -7922,10 +7946,10 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>32616.8094621</v>
       </c>
       <c r="AS7" t="n">
-        <v>160079.3245</v>
+        <v>192696.1339621</v>
       </c>
     </row>
     <row r="8">
@@ -7989,13 +8013,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>54647.16204</v>
+        <v>71658.30487599999</v>
       </c>
       <c r="U8" t="n">
-        <v>9928.4442</v>
+        <v>14339.83868</v>
       </c>
       <c r="V8" t="n">
-        <v>5715.55243</v>
+        <v>8808.9758762</v>
       </c>
       <c r="W8" t="n">
         <v>980</v>
@@ -8036,8 +8060,16 @@
       <c r="AI8" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,16075;31,4171;41,0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL8" t="n">
         <v>111590.7245</v>
       </c>
@@ -8057,10 +8089,10 @@
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>65236.94956365</v>
       </c>
       <c r="AS8" t="n">
-        <v>160768.3534925</v>
+        <v>226005.30305615</v>
       </c>
     </row>
     <row r="9">
@@ -8259,13 +8291,13 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>225198.901568</v>
+        <v>234348.3484736</v>
       </c>
       <c r="U10" t="n">
-        <v>40361.68436799999</v>
+        <v>42730.58677759999</v>
       </c>
       <c r="V10" t="n">
-        <v>27544.5569795</v>
+        <v>29192.07263172</v>
       </c>
       <c r="W10" t="n">
         <v>2180</v>
@@ -8306,8 +8338,16 @@
       <c r="AI10" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,9003;31,2329;41,0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL10" t="n">
         <v>501678.951825</v>
       </c>
@@ -8327,10 +8367,10 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>34968.088532105</v>
       </c>
       <c r="AS10" t="n">
-        <v>673223.726339325</v>
+        <v>708191.8148714299</v>
       </c>
     </row>
     <row r="11">
@@ -8394,13 +8434,13 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>243653.277248</v>
+        <v>289403.511776</v>
       </c>
       <c r="U11" t="n">
-        <v>41333.968048</v>
+        <v>53179.480096</v>
       </c>
       <c r="V11" t="n">
-        <v>28617.9677745</v>
+        <v>36862.98650037</v>
       </c>
       <c r="W11" t="n">
         <v>2480</v>
@@ -8441,8 +8481,16 @@
       <c r="AI11" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,45020;31,11653;41,0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL11" t="n">
         <v>501678.951825</v>
       </c>
@@ -8462,10 +8510,10 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>174893.1253329525</v>
       </c>
       <c r="AS11" t="n">
-        <v>705053.9714825749</v>
+        <v>879947.0968155274</v>
       </c>
     </row>
     <row r="12">
@@ -8529,13 +8577,13 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>262107.652928</v>
+        <v>307857.887456</v>
       </c>
       <c r="U12" t="n">
-        <v>42306.251728</v>
+        <v>54151.76377599999</v>
       </c>
       <c r="V12" t="n">
-        <v>29691.3785695</v>
+        <v>37936.39729537</v>
       </c>
       <c r="W12" t="n">
         <v>2780</v>
@@ -8576,8 +8624,16 @@
       <c r="AI12" t="n">
         <v>0</v>
       </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,45020;31,11653;41,0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL12" t="n">
         <v>501678.951825</v>
       </c>
@@ -8597,10 +8653,10 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>174893.1253329525</v>
       </c>
       <c r="AS12" t="n">
-        <v>736884.216625825</v>
+        <v>911777.3419587775</v>
       </c>
     </row>
     <row r="13">
@@ -8664,13 +8720,13 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>280562.028608</v>
+        <v>371016.7497088</v>
       </c>
       <c r="U13" t="n">
-        <v>43278.535408</v>
+        <v>66701.56101919999</v>
       </c>
       <c r="V13" t="n">
-        <v>30764.7893645</v>
+        <v>47098.10884017</v>
       </c>
       <c r="W13" t="n">
         <v>3080</v>
@@ -8711,8 +8767,16 @@
       <c r="AI13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,88473;31,22905;41,0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL13" t="n">
         <v>501678.951825</v>
       </c>
@@ -8732,10 +8796,10 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>345990.1848031825</v>
       </c>
       <c r="AS13" t="n">
-        <v>768714.4617690751</v>
+        <v>1114704.646572257</v>
       </c>
     </row>
     <row r="14">
@@ -8799,13 +8863,13 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>280562.028608</v>
+        <v>326312.263136</v>
       </c>
       <c r="U14" t="n">
-        <v>43278.535408</v>
+        <v>55124.047456</v>
       </c>
       <c r="V14" t="n">
-        <v>30764.7893645</v>
+        <v>39009.80809037</v>
       </c>
       <c r="W14" t="n">
         <v>3000</v>
@@ -8846,8 +8910,16 @@
       <c r="AI14" t="n">
         <v>0</v>
       </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,45020;31,11653;41,0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL14" t="n">
         <v>501678.951825</v>
       </c>
@@ -8867,10 +8939,10 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>174893.1253329525</v>
       </c>
       <c r="AS14" t="n">
-        <v>768531.4617690751</v>
+        <v>943424.5871020276</v>
       </c>
     </row>
     <row r="15">
@@ -8934,13 +9006,13 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>415238.8120552</v>
+        <v>472601.50236904</v>
       </c>
       <c r="U15" t="n">
-        <v>65841.3552756</v>
+        <v>80695.36302392</v>
       </c>
       <c r="V15" t="n">
-        <v>52136.75854800001</v>
+        <v>62544.68833232</v>
       </c>
       <c r="W15" t="n">
         <v>3160</v>
@@ -8981,8 +9053,16 @@
       <c r="AI15" t="n">
         <v>0</v>
       </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,57719;31,14942;41,0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL15" t="n">
         <v>772808.11028</v>
       </c>
@@ -9002,10 +9082,10 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>219700.940037088</v>
       </c>
       <c r="AS15" t="n">
-        <v>1182146.52510784</v>
+        <v>1401847.465144928</v>
       </c>
     </row>
     <row r="16">
@@ -9069,13 +9149,13 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>415238.8120552</v>
+        <v>482162.45075468</v>
       </c>
       <c r="U16" t="n">
-        <v>65841.3552756</v>
+        <v>83170.69764863999</v>
       </c>
       <c r="V16" t="n">
-        <v>52136.75854800001</v>
+        <v>64276.7733536</v>
       </c>
       <c r="W16" t="n">
         <v>3240</v>
@@ -9116,8 +9196,16 @@
       <c r="AI16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,67338;31,17432;41,0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL16" t="n">
         <v>772808.11028</v>
       </c>
@@ -9137,10 +9225,10 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>256301.186205656</v>
       </c>
       <c r="AS16" t="n">
-        <v>1182329.52510784</v>
+        <v>1438630.711313496</v>
       </c>
     </row>
     <row r="17">
@@ -9204,13 +9292,13 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1028323.8604136</v>
+        <v>1116465.8910751</v>
       </c>
       <c r="U17" t="n">
-        <v>167841.5937784</v>
+        <v>190663.94036312</v>
       </c>
       <c r="V17" t="n">
-        <v>150926.582</v>
+        <v>167303.12528</v>
       </c>
       <c r="W17" t="n">
         <v>3560</v>
@@ -9251,8 +9339,16 @@
       <c r="AI17" t="n">
         <v>0</v>
       </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,94421;31,24454;41,0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL17" t="n">
         <v>1772177.69252</v>
       </c>
@@ -9272,10 +9368,10 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>339781.345956068</v>
       </c>
       <c r="AS17" t="n">
-        <v>3067989.70398456</v>
+        <v>3407771.049940628</v>
       </c>
     </row>
     <row r="18">
@@ -9339,13 +9435,13 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5201371.699872799</v>
+        <v>5432975.49829408</v>
       </c>
       <c r="U18" t="n">
-        <v>869079.3692597999</v>
+        <v>929087.45911002</v>
       </c>
       <c r="V18" t="n">
-        <v>739327.7590874999</v>
+        <v>781742.70786775</v>
       </c>
       <c r="W18" t="n">
         <v>4200</v>
@@ -9386,8 +9482,16 @@
       <c r="AI18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,300196;31,77814;41,0</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL18" t="n">
         <v>10790495.359115</v>
       </c>
@@ -9407,10 +9511,10 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>889545.5738742356</v>
       </c>
       <c r="AS18" t="n">
-        <v>15464348.96251854</v>
+        <v>16353894.53639278</v>
       </c>
     </row>
     <row r="19">
@@ -9474,13 +9578,13 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8592082.1200724</v>
+        <v>8823685.918493681</v>
       </c>
       <c r="U19" t="n">
-        <v>1437003.8469242</v>
+        <v>1497011.93677442</v>
       </c>
       <c r="V19" t="n">
-        <v>1215777.01705</v>
+        <v>1258191.96583025</v>
       </c>
       <c r="W19" t="n">
         <v>5240</v>
@@ -9521,8 +9625,16 @@
       <c r="AI19" t="n">
         <v>0</v>
       </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,300196;31,77814;41,0</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL19" t="n">
         <v>17507723.18906</v>
       </c>
@@ -9542,10 +9654,10 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>889545.5738742356</v>
       </c>
       <c r="AS19" t="n">
-        <v>25515700.51188688</v>
+        <v>26405246.08576111</v>
       </c>
     </row>
     <row r="20">
@@ -9609,13 +9721,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>196195.69331</v>
+        <v>201371.11550225</v>
       </c>
       <c r="U20" t="n">
-        <v>40593.5722504</v>
+        <v>41996.20760616</v>
       </c>
       <c r="V20" t="n">
-        <v>23783.254898</v>
+        <v>24500.53410196</v>
       </c>
       <c r="W20" t="n">
         <v>980</v>
@@ -9656,8 +9768,16 @@
       <c r="AI20" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,5253;31,1426;41,0</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL20" t="n">
         <v>534068.4461200001</v>
       </c>
@@ -9677,10 +9797,10 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>18977.961569764</v>
       </c>
       <c r="AS20" t="n">
-        <v>617795.55750126</v>
+        <v>636773.5190710239</v>
       </c>
     </row>
     <row r="21">
@@ -9744,13 +9864,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>267949.7733336</v>
+        <v>274776.05643372</v>
       </c>
       <c r="U21" t="n">
-        <v>49823.901444</v>
+        <v>51628.38582600001</v>
       </c>
       <c r="V21" t="n">
-        <v>33019.040611</v>
+        <v>34049.98526904</v>
       </c>
       <c r="W21" t="n">
         <v>1560</v>
@@ -9791,8 +9911,16 @@
       <c r="AI21" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,7385;31,1954;41,0</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL21" t="n">
         <v>631181.82015</v>
       </c>
@@ -9812,10 +9940,10 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>25205.15711965</v>
       </c>
       <c r="AS21" t="n">
-        <v>808893.9268104502</v>
+        <v>834099.0839301001</v>
       </c>
     </row>
     <row r="22">
@@ -9879,13 +10007,13 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>388236.323392</v>
+        <v>400776.9234176</v>
       </c>
       <c r="U22" t="n">
-        <v>65167.6096613</v>
+        <v>68397.83803217999</v>
       </c>
       <c r="V22" t="n">
-        <v>49337.0662165</v>
+        <v>51488.95517138</v>
       </c>
       <c r="W22" t="n">
         <v>2780</v>
@@ -9926,8 +10054,16 @@
       <c r="AI22" t="n">
         <v>0</v>
       </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,14869;31,3833;41,0</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL22" t="n">
         <v>795856.2076650001</v>
       </c>
@@ -9947,10 +10083,10 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>47202.537275232</v>
       </c>
       <c r="AS22" t="n">
-        <v>1133718.960799845</v>
+        <v>1180921.498075077</v>
       </c>
     </row>
     <row r="23">
@@ -10014,13 +10150,13 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>458560.5034804</v>
+        <v>474967.8020335</v>
       </c>
       <c r="U23" t="n">
-        <v>75637.1647388</v>
+        <v>79880.90257543999</v>
       </c>
       <c r="V23" t="n">
-        <v>58831.752586</v>
+        <v>61729.22896508</v>
       </c>
       <c r="W23" t="n">
         <v>3240</v>
@@ -10061,8 +10197,16 @@
       <c r="AI23" t="n">
         <v>0</v>
       </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,20131;31,5199;41,0</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL23" t="n">
         <v>868423.77564</v>
       </c>
@@ -10082,10 +10226,10 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>62349.578805626</v>
       </c>
       <c r="AS23" t="n">
-        <v>1331738.51754762</v>
+        <v>1394088.096353246</v>
       </c>
     </row>
     <row r="24">
@@ -10149,13 +10293,13 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>526058.6858399999</v>
+        <v>545744.2557559999</v>
       </c>
       <c r="U24" t="n">
-        <v>91633.95689080001</v>
+        <v>96729.70346752001</v>
       </c>
       <c r="V24" t="n">
-        <v>72074.948646</v>
+        <v>75635.1026672</v>
       </c>
       <c r="W24" t="n">
         <v>3560</v>
@@ -10196,8 +10340,16 @@
       <c r="AI24" t="n">
         <v>0</v>
       </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,24532;31,6350;41,0</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL24" t="n">
         <v>983288.98554</v>
       </c>
@@ -10217,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>75317.10691726801</v>
       </c>
       <c r="AS24" t="n">
-        <v>1586494.94310102</v>
+        <v>1661812.050018288</v>
       </c>
     </row>
     <row r="25">
@@ -10284,13 +10436,13 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>666189.0809156001</v>
+        <v>693179.3216001601</v>
       </c>
       <c r="U25" t="n">
-        <v>124301.7469726</v>
+        <v>131294.45383474</v>
       </c>
       <c r="V25" t="n">
-        <v>98971.29288750001</v>
+        <v>104017.38641575</v>
       </c>
       <c r="W25" t="n">
         <v>4200</v>
@@ -10331,8 +10483,16 @@
       <c r="AI25" t="n">
         <v>0</v>
       </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>21,34653;31,8982;41,0</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL25" t="n">
         <v>1223081.086255</v>
       </c>
@@ -10352,10 +10512,10 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>104254.9558207635</v>
       </c>
       <c r="AS25" t="n">
-        <v>2108151.069129665</v>
+        <v>2212406.024950429</v>
       </c>
     </row>
   </sheetData>

--- a/opm_hero_property/heroes/61.xlsx
+++ b/opm_hero_property/heroes/61.xlsx
@@ -6883,7 +6883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7079,40 +7079,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -7152,7 +7172,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>61</v>
@@ -7179,13 +7199,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5432975.49829408</v>
+        <v>6187591.13968608</v>
       </c>
       <c r="U2" t="n">
-        <v>929087.45911002</v>
+        <v>1089038.74139802</v>
       </c>
       <c r="V2" t="n">
-        <v>781742.70786775</v>
+        <v>908914.27126775</v>
       </c>
       <c r="W2" t="n">
         <v>4200</v>
@@ -7224,7 +7244,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -7237,28 +7257,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>10790495.359115</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>2071068.303403545</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2007622</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2870795.6287292</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1726342.35</v>
+      </c>
+      <c r="AU2" t="n">
         <v>889545.5738742356</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16353894.53639278</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>18943410.51512198</v>
       </c>
     </row>
     <row r="3">
@@ -7295,7 +7323,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>61</v>
@@ -7322,13 +7350,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>693179.3216001601</v>
+        <v>778161.8481841601</v>
       </c>
       <c r="U3" t="n">
-        <v>131294.45383474</v>
+        <v>149306.90009074</v>
       </c>
       <c r="V3" t="n">
-        <v>104017.38641575</v>
+        <v>118636.82661575</v>
       </c>
       <c r="W3" t="n">
         <v>4200</v>
@@ -7367,7 +7395,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7380,28 +7408,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1223081.086255</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>235664.332874665</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>466485.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>564266.0869004</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>195549.7</v>
+      </c>
+      <c r="AU3" t="n">
         <v>104254.9558207635</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2212406.024950429</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2505736.211850828</v>
       </c>
     </row>
     <row r="4">
@@ -7438,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>61</v>
@@ -7465,13 +7501,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7280.3568</v>
+        <v>7677.3568</v>
       </c>
       <c r="U4" t="n">
-        <v>1554.9257</v>
+        <v>1638.9257</v>
       </c>
       <c r="V4" t="n">
-        <v>587.6931999999999</v>
+        <v>654.6931999999999</v>
       </c>
       <c r="W4" t="n">
         <v>550</v>
@@ -7510,25 +7546,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>18619.18003</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4498.9</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7536,7 +7568,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23118.08003</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1361.85</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>24479.93003</v>
       </c>
     </row>
     <row r="5">
@@ -7573,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>61</v>
@@ -7600,13 +7644,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>19181.5765</v>
+        <v>30862.5765</v>
       </c>
       <c r="U5" t="n">
-        <v>3880.8774</v>
+        <v>6356.877399999999</v>
       </c>
       <c r="V5" t="n">
-        <v>1781.274</v>
+        <v>3749.274</v>
       </c>
       <c r="W5" t="n">
         <v>638</v>
@@ -7645,25 +7689,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>46991.85606</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11906.8</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7671,7 +7711,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>58898.65605999999</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>40081.4</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>98980.05605999999</v>
       </c>
     </row>
     <row r="6">
@@ -7708,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>61</v>
@@ -7735,13 +7787,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>54233.67</v>
+        <v>104314.67</v>
       </c>
       <c r="U6" t="n">
-        <v>9905.4</v>
+        <v>20520.4</v>
       </c>
       <c r="V6" t="n">
-        <v>5695.286</v>
+        <v>14135.286</v>
       </c>
       <c r="W6" t="n">
         <v>900</v>
@@ -7780,33 +7832,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>111590.7245</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9406.6</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>159896.3245</v>
+      <c r="AT6" t="n">
+        <v>171854.5</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>331750.8245</v>
       </c>
     </row>
     <row r="7">
@@ -7843,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>61</v>
@@ -7870,13 +7930,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>62738.741418</v>
+        <v>112819.741418</v>
       </c>
       <c r="U7" t="n">
-        <v>12111.09724</v>
+        <v>22726.09724</v>
       </c>
       <c r="V7" t="n">
-        <v>7241.7950588</v>
+        <v>15681.7950588</v>
       </c>
       <c r="W7" t="n">
         <v>980</v>
@@ -7915,7 +7975,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7928,28 +7988,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>111590.7245</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9589.6</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>171854.5</v>
+      </c>
+      <c r="AU7" t="n">
         <v>32616.8094621</v>
       </c>
-      <c r="AS7" t="n">
-        <v>192696.1339621</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>364550.6339621</v>
       </c>
     </row>
     <row r="8">
@@ -7986,7 +8054,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>61</v>
@@ -8013,13 +8081,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>71658.30487599999</v>
+        <v>121739.304876</v>
       </c>
       <c r="U8" t="n">
-        <v>14339.83868</v>
+        <v>24954.83868</v>
       </c>
       <c r="V8" t="n">
-        <v>8808.9758762</v>
+        <v>17248.9758762</v>
       </c>
       <c r="W8" t="n">
         <v>980</v>
@@ -8058,7 +8126,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -8071,28 +8139,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>111590.7245</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>689.0289925</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9589.6</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>171854.5</v>
+      </c>
+      <c r="AU8" t="n">
         <v>65236.94956365</v>
       </c>
-      <c r="AS8" t="n">
-        <v>226005.30305615</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>397859.80305615</v>
       </c>
     </row>
     <row r="9">
@@ -8129,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>61</v>
@@ -8156,31 +8232,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>223353.464</v>
+        <v>379029.32864</v>
       </c>
       <c r="U9" t="n">
-        <v>40264.456</v>
+        <v>70405.55056</v>
       </c>
       <c r="V9" t="n">
-        <v>27437.2159</v>
+        <v>51482.898059</v>
       </c>
       <c r="W9" t="n">
-        <v>2180</v>
+        <v>2190</v>
       </c>
       <c r="X9" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA9" t="n">
-        <v>3060</v>
+        <v>3070</v>
       </c>
       <c r="AB9" t="n">
-        <v>1800</v>
+        <v>1840</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -8201,33 +8277,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>501678.951825</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>670090.201825</v>
+        <v>44139.13951825</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>402675.95</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000005</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1172122.29134325</v>
       </c>
     </row>
     <row r="10">
@@ -8264,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>61</v>
@@ -8291,31 +8375,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>234348.3484736</v>
+        <v>446641.6089496448</v>
       </c>
       <c r="U10" t="n">
-        <v>42730.58677759999</v>
+        <v>82216.6298657536</v>
       </c>
       <c r="V10" t="n">
-        <v>29192.07263172</v>
+        <v>59693.23437695296</v>
       </c>
       <c r="W10" t="n">
-        <v>2180</v>
+        <v>2190</v>
       </c>
       <c r="X10" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA10" t="n">
-        <v>3060</v>
+        <v>3070</v>
       </c>
       <c r="AB10" t="n">
-        <v>1800</v>
+        <v>1840</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -8336,7 +8420,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8349,28 +8433,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>501678.951825</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>3133.524514325</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44139.13951825</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>402675.95</v>
+      </c>
+      <c r="AU10" t="n">
         <v>34968.088532105</v>
       </c>
-      <c r="AS10" t="n">
-        <v>708191.8148714299</v>
+      <c r="AV10" t="n">
+        <v>252564.1483011442</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1368440.452690824</v>
       </c>
     </row>
     <row r="11">
@@ -8407,7 +8503,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>61</v>
@@ -8434,31 +8530,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>289403.511776</v>
+        <v>566862.4851914881</v>
       </c>
       <c r="U11" t="n">
-        <v>53179.480096</v>
+        <v>101752.371343616</v>
       </c>
       <c r="V11" t="n">
-        <v>36862.98650037</v>
+        <v>74628.22469523866</v>
       </c>
       <c r="W11" t="n">
-        <v>2480</v>
+        <v>2490</v>
       </c>
       <c r="X11" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA11" t="n">
-        <v>3060</v>
+        <v>3070</v>
       </c>
       <c r="AB11" t="n">
-        <v>1800</v>
+        <v>1840</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8479,7 +8575,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8492,28 +8588,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>501678.951825</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>34963.769657575</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44139.13951825</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>402675.95</v>
+      </c>
+      <c r="AU11" t="n">
         <v>174893.1253329525</v>
       </c>
-      <c r="AS11" t="n">
-        <v>879947.0968155274</v>
+      <c r="AV11" t="n">
+        <v>422197.5531262833</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1709829.139460061</v>
       </c>
     </row>
     <row r="12">
@@ -8550,7 +8658,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>61</v>
@@ -8577,31 +8685,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>307857.887456</v>
+        <v>668009.4168900159</v>
       </c>
       <c r="U12" t="n">
-        <v>54151.76377599999</v>
+        <v>112053.584361056</v>
       </c>
       <c r="V12" t="n">
-        <v>37936.39729537</v>
+        <v>86625.71079145354</v>
       </c>
       <c r="W12" t="n">
-        <v>2780</v>
+        <v>2800</v>
       </c>
       <c r="X12" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="AA12" t="n">
-        <v>3060</v>
+        <v>3080</v>
       </c>
       <c r="AB12" t="n">
-        <v>1800</v>
+        <v>1880</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8622,7 +8730,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8635,28 +8743,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>501678.951825</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>66794.014800825</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44139.13951825</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>402675.95</v>
+      </c>
+      <c r="AU12" t="n">
         <v>174893.1253329525</v>
       </c>
-      <c r="AS12" t="n">
-        <v>911777.3419587775</v>
+      <c r="AV12" t="n">
+        <v>632193.1545551326</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1951654.98603216</v>
       </c>
     </row>
     <row r="13">
@@ -8693,7 +8813,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>61</v>
@@ -8720,31 +8840,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>371016.7497088</v>
+        <v>828566.6312501248</v>
       </c>
       <c r="U13" t="n">
-        <v>66701.56101919999</v>
+        <v>137715.1913463632</v>
       </c>
       <c r="V13" t="n">
-        <v>47098.10884017</v>
+        <v>107025.6862211351</v>
       </c>
       <c r="W13" t="n">
-        <v>3080</v>
+        <v>3130</v>
       </c>
       <c r="X13" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA13" t="n">
-        <v>3060</v>
+        <v>3110</v>
       </c>
       <c r="AB13" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8765,7 +8885,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8778,28 +8898,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>501678.951825</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>98624.25994407501</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44139.13951825</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>402675.95</v>
+      </c>
+      <c r="AU13" t="n">
         <v>345990.1848031825</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1114704.646572257</v>
+      <c r="AV13" t="n">
+        <v>885043.0112210503</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2407432.147311558</v>
       </c>
     </row>
     <row r="14">
@@ -8836,7 +8968,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>61</v>
@@ -8863,31 +8995,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>326312.263136</v>
+        <v>914740.645909248</v>
       </c>
       <c r="U14" t="n">
-        <v>55124.047456</v>
+        <v>140747.921424384</v>
       </c>
       <c r="V14" t="n">
-        <v>39009.80809037</v>
+        <v>108953.0780153549</v>
       </c>
       <c r="W14" t="n">
-        <v>3000</v>
+        <v>3050</v>
       </c>
       <c r="X14" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA14" t="n">
-        <v>3000</v>
+        <v>3050</v>
       </c>
       <c r="AB14" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8908,7 +9040,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8921,28 +9053,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>501678.951825</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>98624.25994407501</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>38947.6</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>43956.13951825</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>402675.95</v>
+      </c>
+      <c r="AU14" t="n">
         <v>174893.1253329525</v>
       </c>
-      <c r="AS14" t="n">
-        <v>943424.5871020276</v>
+      <c r="AV14" t="n">
+        <v>1174322.425705511</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2525431.502325788</v>
       </c>
     </row>
     <row r="15">
@@ -8979,7 +9123,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>61</v>
@@ -9006,31 +9150,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>472601.50236904</v>
+        <v>1437035.603623585</v>
       </c>
       <c r="U15" t="n">
-        <v>80695.36302392</v>
+        <v>234106.4491884744</v>
       </c>
       <c r="V15" t="n">
-        <v>62544.68833232</v>
+        <v>183026.3400243858</v>
       </c>
       <c r="W15" t="n">
-        <v>3160</v>
+        <v>3260</v>
       </c>
       <c r="X15" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="AA15" t="n">
-        <v>3120</v>
+        <v>3220</v>
       </c>
       <c r="AB15" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -9051,7 +9195,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -9064,28 +9208,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>772808.11028</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>150246.61482784</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111712</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>127151.6622056</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>736769.3500000001</v>
+      </c>
+      <c r="AU15" t="n">
         <v>219700.940037088</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1401847.465144928</v>
+      <c r="AV15" t="n">
+        <v>1964731.080813748</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4118787.558164276</v>
       </c>
     </row>
     <row r="16">
@@ -9122,7 +9278,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>61</v>
@@ -9149,31 +9305,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>482162.45075468</v>
+        <v>1474288.497683994</v>
       </c>
       <c r="U16" t="n">
-        <v>83170.69764863999</v>
+        <v>241077.2397750471</v>
       </c>
       <c r="V16" t="n">
-        <v>64276.7733536</v>
+        <v>188176.6288005504</v>
       </c>
       <c r="W16" t="n">
-        <v>3240</v>
+        <v>3440</v>
       </c>
       <c r="X16" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA16" t="n">
-        <v>3180</v>
+        <v>3380</v>
       </c>
       <c r="AB16" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -9194,7 +9350,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -9207,28 +9363,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>772808.11028</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>150246.61482784</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>111895</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>127334.6622056</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>736769.3500000001</v>
+      </c>
+      <c r="AU16" t="n">
         <v>256301.186205656</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1438630.711313496</v>
+      <c r="AV16" t="n">
+        <v>2044296.344215887</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4235136.067734983</v>
       </c>
     </row>
     <row r="17">
@@ -9265,7 +9433,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>61</v>
@@ -9292,31 +9460,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1116465.8910751</v>
+        <v>2661652.886403451</v>
       </c>
       <c r="U17" t="n">
-        <v>190663.94036312</v>
+        <v>430572.8580722087</v>
       </c>
       <c r="V17" t="n">
-        <v>167303.12528</v>
+        <v>364393.49097216</v>
       </c>
       <c r="W17" t="n">
-        <v>3560</v>
+        <v>3760</v>
       </c>
       <c r="X17" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA17" t="n">
-        <v>3420</v>
+        <v>3620</v>
       </c>
       <c r="AB17" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -9337,7 +9505,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9350,28 +9518,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1772177.69252</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>340262.86146456</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>685692</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>756546.1077008001</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1177185.7</v>
+      </c>
+      <c r="AU17" t="n">
         <v>339781.345956068</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3407771.049940628</v>
+      <c r="AV17" t="n">
+        <v>3088188.322550183</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7743999.180191612</v>
       </c>
     </row>
     <row r="18">
@@ -9408,7 +9588,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>61</v>
@@ -9435,31 +9615,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5432975.49829408</v>
+        <v>9361128.655712085</v>
       </c>
       <c r="U18" t="n">
-        <v>929087.45911002</v>
+        <v>1486088.912882986</v>
       </c>
       <c r="V18" t="n">
-        <v>781742.70786775</v>
+        <v>1239327.899277344</v>
       </c>
       <c r="W18" t="n">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="X18" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA18" t="n">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="AB18" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9480,7 +9660,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9493,28 +9673,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>10790495.359115</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>2071068.303403545</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2007622</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2870795.6287292</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1726342.35</v>
+      </c>
+      <c r="AU18" t="n">
         <v>889545.5738742356</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16353894.53639278</v>
+      <c r="AV18" t="n">
+        <v>7815462.06032744</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>26758872.57544942</v>
       </c>
     </row>
     <row r="19">
@@ -9551,7 +9743,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>61</v>
@@ -9578,31 +9770,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8823685.918493681</v>
+        <v>16006007.15659044</v>
       </c>
       <c r="U19" t="n">
-        <v>1497011.93677442</v>
+        <v>2632022.582090353</v>
       </c>
       <c r="V19" t="n">
-        <v>1258191.96583025</v>
+        <v>2191807.399879016</v>
       </c>
       <c r="W19" t="n">
-        <v>5240</v>
+        <v>5440</v>
       </c>
       <c r="X19" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA19" t="n">
-        <v>4680</v>
+        <v>4880</v>
       </c>
       <c r="AB19" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9623,7 +9815,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9636,28 +9828,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>17507723.18906</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>3361573.92282688</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3470670.6</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6096705.328358999</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1726342.35</v>
+      </c>
+      <c r="AU19" t="n">
         <v>889545.5738742356</v>
       </c>
-      <c r="AS19" t="n">
-        <v>26405246.08576111</v>
+      <c r="AV19" t="n">
+        <v>16032206.3581981</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>46789829.52231821</v>
       </c>
     </row>
     <row r="20">
@@ -9694,7 +9898,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>61</v>
@@ -9721,13 +9925,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>201371.11550225</v>
+        <v>207011.11550225</v>
       </c>
       <c r="U20" t="n">
-        <v>41996.20760616</v>
+        <v>43191.20760616</v>
       </c>
       <c r="V20" t="n">
-        <v>24500.53410196</v>
+        <v>25470.53410196</v>
       </c>
       <c r="W20" t="n">
         <v>980</v>
@@ -9766,7 +9970,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9779,28 +9983,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>534068.4461200001</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>3308.91138126</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>32982.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>19463</v>
+      </c>
+      <c r="AU20" t="n">
         <v>18977.961569764</v>
       </c>
-      <c r="AS20" t="n">
-        <v>636773.5190710239</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>656236.5190710239</v>
       </c>
     </row>
     <row r="21">
@@ -9837,7 +10049,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>61</v>
@@ -9864,13 +10076,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>274776.05643372</v>
+        <v>286473.05973172</v>
       </c>
       <c r="U21" t="n">
-        <v>51628.38582600001</v>
+        <v>54115.850506</v>
       </c>
       <c r="V21" t="n">
-        <v>34049.98526904</v>
+        <v>36000.57807104</v>
       </c>
       <c r="W21" t="n">
         <v>1560</v>
@@ -9909,7 +10121,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9922,28 +10134,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>631181.82015</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49107.75</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>43610.65666045</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>65965.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>72269.1682015</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>33772.85</v>
+      </c>
+      <c r="AU21" t="n">
         <v>25205.15711965</v>
       </c>
-      <c r="AS21" t="n">
-        <v>834099.0839301001</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>874175.5021316</v>
       </c>
     </row>
     <row r="22">
@@ -9980,7 +10200,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>61</v>
@@ -10007,31 +10227,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>400776.9234176</v>
+        <v>525258.9881904512</v>
       </c>
       <c r="U22" t="n">
-        <v>68397.83803217999</v>
+        <v>87156.94693671756</v>
       </c>
       <c r="V22" t="n">
-        <v>51488.95517138</v>
+        <v>66727.79401010793</v>
       </c>
       <c r="W22" t="n">
-        <v>2780</v>
+        <v>2830</v>
       </c>
       <c r="X22" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA22" t="n">
-        <v>3060</v>
+        <v>3110</v>
       </c>
       <c r="AB22" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -10052,7 +10272,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -10065,28 +10285,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>795856.2076650001</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>104850.053134845</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>95470.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>103420.71207665</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>45611.65</v>
+      </c>
+      <c r="AU22" t="n">
         <v>47202.537275232</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1180921.498075077</v>
+      <c r="AV22" t="n">
+        <v>288581.2774601961</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1523064.737611923</v>
       </c>
     </row>
     <row r="23">
@@ -10123,7 +10355,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>61</v>
@@ -10150,31 +10382,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>474967.8020335</v>
+        <v>688617.315943635</v>
       </c>
       <c r="U23" t="n">
-        <v>79880.90257543999</v>
+        <v>115525.9177190825</v>
       </c>
       <c r="V23" t="n">
-        <v>61729.22896508</v>
+        <v>88487.00210891846</v>
       </c>
       <c r="W23" t="n">
-        <v>3240</v>
+        <v>3440</v>
       </c>
       <c r="X23" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA23" t="n">
-        <v>3180</v>
+        <v>3380</v>
       </c>
       <c r="AB23" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -10195,7 +10427,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -10208,28 +10440,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>868423.77564</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>168467.49190762</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>150324</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>167675.9755128</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>83455.75</v>
+      </c>
+      <c r="AU23" t="n">
         <v>62349.578805626</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1394088.096353246</v>
+      <c r="AV23" t="n">
+        <v>515049.5884655392</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2009945.410331585</v>
       </c>
     </row>
     <row r="24">
@@ -10266,7 +10510,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>61</v>
@@ -10293,31 +10537,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>545744.2557559999</v>
+        <v>859692.4334434158</v>
       </c>
       <c r="U24" t="n">
-        <v>96729.70346752001</v>
+        <v>150357.8962048647</v>
       </c>
       <c r="V24" t="n">
-        <v>75635.1026672</v>
+        <v>116515.5561695216</v>
       </c>
       <c r="W24" t="n">
-        <v>3560</v>
+        <v>3760</v>
       </c>
       <c r="X24" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA24" t="n">
-        <v>3420</v>
+        <v>3620</v>
       </c>
       <c r="AB24" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -10338,7 +10582,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10351,28 +10595,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>983288.98554</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>190162.10756102</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>255711.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>295009.7594216</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>133343.7</v>
+      </c>
+      <c r="AU24" t="n">
         <v>75317.10691726801</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1661812.050018288</v>
+      <c r="AV24" t="n">
+        <v>748803.0557918432</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2583257.365231731</v>
       </c>
     </row>
     <row r="25">
@@ -10409,7 +10665,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>61</v>
@@ -10436,31 +10692,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>693179.3216001601</v>
+        <v>1461552.06209803</v>
       </c>
       <c r="U25" t="n">
-        <v>131294.45383474</v>
+        <v>257911.6450325712</v>
       </c>
       <c r="V25" t="n">
-        <v>104017.38641575</v>
+        <v>203850.9168065273</v>
       </c>
       <c r="W25" t="n">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="X25" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA25" t="n">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="AB25" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10481,7 +10737,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10494,28 +10750,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1223081.086255</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>235664.332874665</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>466485.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>564266.0869004</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>195549.7</v>
+      </c>
+      <c r="AU25" t="n">
         <v>104254.9558207635</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2212406.024950429</v>
+      <c r="AV25" t="n">
+        <v>1925143.972609475</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4430880.184460303</v>
       </c>
     </row>
   </sheetData>
